--- a/output/excel-organize.xlsx
+++ b/output/excel-organize.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanshakya/Desktop/mom-ag_services/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C5276B-5EBC-A04E-97C7-858633679CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747A400F-A5E9-C54D-8AA0-BE10B61D5722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D48A5087-0F85-9648-B34D-C644C0BC30EB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{D48A5087-0F85-9648-B34D-C644C0BC30EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Compare1-2_Div" sheetId="1" r:id="rId1"/>
+    <sheet name="List-All" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="556">
   <si>
     <t>"conservation",</t>
   </si>
@@ -126,13 +127,1588 @@
   </si>
   <si>
     <t>"crop production",</t>
+  </si>
+  <si>
+    <t>"china",</t>
+  </si>
+  <si>
+    <t>"foodsecurity",</t>
+  </si>
+  <si>
+    <t>"nepal",</t>
+  </si>
+  <si>
+    <t>"india",</t>
+  </si>
+  <si>
+    <t>"climatechange",</t>
+  </si>
+  <si>
+    <t>"agrobiodiversity",</t>
+  </si>
+  <si>
+    <t>"geneticdiversity",</t>
+  </si>
+  <si>
+    <t>"cropdiversity",</t>
+  </si>
+  <si>
+    <t>"landuse",</t>
+  </si>
+  <si>
+    <t>"himalaya",</t>
+  </si>
+  <si>
+    <t>"sustainabledevelopment",</t>
+  </si>
+  <si>
+    <t>"ecosystemservices",</t>
+  </si>
+  <si>
+    <t>"wheat",</t>
+  </si>
+  <si>
+    <t>"bangladesh",</t>
+  </si>
+  <si>
+    <t>"intercropping",</t>
+  </si>
+  <si>
+    <t>"sustainableagriculture",</t>
+  </si>
+  <si>
+    <t>"adaptation",</t>
+  </si>
+  <si>
+    <t>"ethnobotany",</t>
+  </si>
+  <si>
+    <t>"landraces",</t>
+  </si>
+  <si>
+    <t>"livelihood",</t>
+  </si>
+  <si>
+    <t>"maize",</t>
+  </si>
+  <si>
+    <t>"sustainableintensification",</t>
+  </si>
+  <si>
+    <t>"agroforestry",</t>
+  </si>
+  <si>
+    <t>"pakistan",</t>
+  </si>
+  <si>
+    <t>"yield",</t>
+  </si>
+  <si>
+    <t>"diversity",</t>
+  </si>
+  <si>
+    <t>"energy",</t>
+  </si>
+  <si>
+    <t>"livestock",</t>
+  </si>
+  <si>
+    <t>"traditionalknowledge",</t>
+  </si>
+  <si>
+    <t>"adoption",</t>
+  </si>
+  <si>
+    <t>"conservationagriculture",</t>
+  </si>
+  <si>
+    <t>"on-farmconservation",</t>
+  </si>
+  <si>
+    <t>"populationstructure",</t>
+  </si>
+  <si>
+    <t>"xishuangbanna",</t>
+  </si>
+  <si>
+    <t>"economics",</t>
+  </si>
+  <si>
+    <t>"integratedfarmingsystem",</t>
+  </si>
+  <si>
+    <t>"plantgeneticresources",</t>
+  </si>
+  <si>
+    <t>"resilience",</t>
+  </si>
+  <si>
+    <t>"yunnan",</t>
+  </si>
+  <si>
+    <t>"agritourism",</t>
+  </si>
+  <si>
+    <t>"cropimprovement",</t>
+  </si>
+  <si>
+    <t>"domestication",</t>
+  </si>
+  <si>
+    <t>"ecologicalagriculture",</t>
+  </si>
+  <si>
+    <t>"farmingsystems",</t>
+  </si>
+  <si>
+    <t>"asia",</t>
+  </si>
+  <si>
+    <t>"cropproduction",</t>
+  </si>
+  <si>
+    <t>"ecosystemservice",</t>
+  </si>
+  <si>
+    <t>"himalayas",</t>
+  </si>
+  <si>
+    <t>"oryzasativa",</t>
+  </si>
+  <si>
+    <t>"southasia",</t>
+  </si>
+  <si>
+    <t>"speciesdiversity",</t>
+  </si>
+  <si>
+    <t>"ecosystem",</t>
+  </si>
+  <si>
+    <t>"forestry",</t>
+  </si>
+  <si>
+    <t>"totalfactorproductivity",</t>
+  </si>
+  <si>
+    <t>"traditionalcrops",</t>
+  </si>
+  <si>
+    <t>"agriculturaldevelopment",</t>
+  </si>
+  <si>
+    <t>"ecology",</t>
+  </si>
+  <si>
+    <t>"stability",</t>
+  </si>
+  <si>
+    <t>"supplychainmanagement",</t>
+  </si>
+  <si>
+    <t>"virulence",</t>
+  </si>
+  <si>
+    <t>"willingnesstoaccept",</t>
+  </si>
+  <si>
+    <t>"women",</t>
+  </si>
+  <si>
+    <t>"agriculturalproduction",</t>
+  </si>
+  <si>
+    <t>"farmingsystem",</t>
+  </si>
+  <si>
+    <t>"geneticvariation",</t>
+  </si>
+  <si>
+    <t>"sandysoils",</t>
+  </si>
+  <si>
+    <t>"seedlingestablishment",</t>
+  </si>
+  <si>
+    <t>"semiarid",</t>
+  </si>
+  <si>
+    <t>"sensor",</t>
+  </si>
+  <si>
+    <t>"sequestration",</t>
+  </si>
+  <si>
+    <t>"sexpheromone",</t>
+  </si>
+  <si>
+    <t>"sizeclass",</t>
+  </si>
+  <si>
+    <t>"slopingfarmland",</t>
+  </si>
+  <si>
+    <t>"socchange",</t>
+  </si>
+  <si>
+    <t>"social-ecologicalresilience",</t>
+  </si>
+  <si>
+    <t>"software",</t>
+  </si>
+  <si>
+    <t>"sogatellafurcifera",</t>
+  </si>
+  <si>
+    <t>"soilandwaterconservation",</t>
+  </si>
+  <si>
+    <t>"soilcarbonsequestration",</t>
+  </si>
+  <si>
+    <t>"soilfauna",</t>
+  </si>
+  <si>
+    <t>"soilproductivity",</t>
+  </si>
+  <si>
+    <t>"sordariales",</t>
+  </si>
+  <si>
+    <t>"southwesternchina",</t>
+  </si>
+  <si>
+    <t>"soybeanbasedcroppingsystem",</t>
+  </si>
+  <si>
+    <t>"spatialplanning",</t>
+  </si>
+  <si>
+    <t>"spinach",</t>
+  </si>
+  <si>
+    <t>"stableisotopes",</t>
+  </si>
+  <si>
+    <t>"stemdensity",</t>
+  </si>
+  <si>
+    <t>"stomatalconductance",</t>
+  </si>
+  <si>
+    <t>"strawmanagement",</t>
+  </si>
+  <si>
+    <t>"strawmulch",</t>
+  </si>
+  <si>
+    <t>"striptillage",</t>
+  </si>
+  <si>
+    <t>"supervisionofagriculturalchemicalinputs",</t>
+  </si>
+  <si>
+    <t>"supplychains",</t>
+  </si>
+  <si>
+    <t>"supplychainvisibility",</t>
+  </si>
+  <si>
+    <t>"sustainabilityindicators",</t>
+  </si>
+  <si>
+    <t>"sustainableperformance",</t>
+  </si>
+  <si>
+    <t>"sweetpotato",</t>
+  </si>
+  <si>
+    <t>"swertiachirayita",</t>
+  </si>
+  <si>
+    <t>"swotanalysis",</t>
+  </si>
+  <si>
+    <t>"systematicreview",</t>
+  </si>
+  <si>
+    <t>"targetrecognition",</t>
+  </si>
+  <si>
+    <t>"technologicalchange",</t>
+  </si>
+  <si>
+    <t>"texusbaccata",</t>
+  </si>
+  <si>
+    <t>"thymoquinone",</t>
+  </si>
+  <si>
+    <t>"tiller",</t>
+  </si>
+  <si>
+    <t>"tinni",</t>
+  </si>
+  <si>
+    <t>"toxicity",</t>
+  </si>
+  <si>
+    <t>"traditionalfarming",</t>
+  </si>
+  <si>
+    <t>"transitionpressure",</t>
+  </si>
+  <si>
+    <t>"translocation",</t>
+  </si>
+  <si>
+    <t>"transpiration",</t>
+  </si>
+  <si>
+    <t>"transplantation",</t>
+  </si>
+  <si>
+    <t>"triticumaestivum",</t>
+  </si>
+  <si>
+    <t>"trust",</t>
+  </si>
+  <si>
+    <t>"uniformitycoefficient",</t>
+  </si>
+  <si>
+    <t>"uplandsoil",</t>
+  </si>
+  <si>
+    <t>"urbanagriculture",</t>
+  </si>
+  <si>
+    <t>"urbanhorticulture",</t>
+  </si>
+  <si>
+    <t>"variation",</t>
+  </si>
+  <si>
+    <t>"vegetationrestoration",</t>
+  </si>
+  <si>
+    <t>"vietnam",</t>
+  </si>
+  <si>
+    <t>"vignamungo",</t>
+  </si>
+  <si>
+    <t>"virtualwater",</t>
+  </si>
+  <si>
+    <t>"waterfootprint",</t>
+  </si>
+  <si>
+    <t>"weedy",</t>
+  </si>
+  <si>
+    <t>"weighingmethod",</t>
+  </si>
+  <si>
+    <t>"wheatfarming",</t>
+  </si>
+  <si>
+    <t>"wheatyield",</t>
+  </si>
+  <si>
+    <t>"wild",</t>
+  </si>
+  <si>
+    <t>"wilddiversity",</t>
+  </si>
+  <si>
+    <t>"wildrelatives",</t>
+  </si>
+  <si>
+    <t>"wildrelativesofcultivatedspecies",</t>
+  </si>
+  <si>
+    <t>"xitagrapevalley",</t>
+  </si>
+  <si>
+    <t>"yam",</t>
+  </si>
+  <si>
+    <t>"zeamays",</t>
+  </si>
+  <si>
+    <t>"ziziphus",</t>
+  </si>
+  <si>
+    <t>"eurasia",</t>
+  </si>
+  <si>
+    <t>"agriculturalland",</t>
+  </si>
+  <si>
+    <t>"cropyield",</t>
+  </si>
+  <si>
+    <t>"article",</t>
+  </si>
+  <si>
+    <t>"alternativeagriculture",</t>
+  </si>
+  <si>
+    <t>"agriculturalecosystem",</t>
+  </si>
+  <si>
+    <t>"foodsupply",</t>
+  </si>
+  <si>
+    <t>"agriculturalmanagement",</t>
+  </si>
+  <si>
+    <t>"crop",</t>
+  </si>
+  <si>
+    <t>"humans",</t>
+  </si>
+  <si>
+    <t>"female",</t>
+  </si>
+  <si>
+    <t>"ecosystems",</t>
+  </si>
+  <si>
+    <t>"croppingpractice",</t>
+  </si>
+  <si>
+    <t>"landusechange",</t>
+  </si>
+  <si>
+    <t>"male",</t>
+  </si>
+  <si>
+    <t>"sampleselectionmodels",</t>
+  </si>
+  <si>
+    <t>"sandyloam",</t>
+  </si>
+  <si>
+    <t>"sandysoil",</t>
+  </si>
+  <si>
+    <t>"santolina",</t>
+  </si>
+  <si>
+    <t>"sapindusmukorossi",</t>
+  </si>
+  <si>
+    <t>"sapiumdiscolor",</t>
+  </si>
+  <si>
+    <t>"satellitesensor",</t>
+  </si>
+  <si>
+    <t>"scaffolds",</t>
+  </si>
+  <si>
+    <t>"scales(weighinginstruments)",</t>
+  </si>
+  <si>
+    <t>"scavenging(chemistry)",</t>
+  </si>
+  <si>
+    <t>"scenarioanalysis",</t>
+  </si>
+  <si>
+    <t>"schimasuperba",</t>
+  </si>
+  <si>
+    <t>"schisandra",</t>
+  </si>
+  <si>
+    <t>"schisandrasphenanthera",</t>
+  </si>
+  <si>
+    <t>"scientificinstitutions",</t>
+  </si>
+  <si>
+    <t>"scientificresearches",</t>
+  </si>
+  <si>
+    <t>"seasonality",</t>
+  </si>
+  <si>
+    <t>"sechiumedule",</t>
+  </si>
+  <si>
+    <t>"secondarymetabolite",</t>
+  </si>
+  <si>
+    <t>"secondarysuccession",</t>
+  </si>
+  <si>
+    <t>"secondarysuccession(community)",</t>
+  </si>
+  <si>
+    <t>"securityofdata",</t>
+  </si>
+  <si>
+    <t>"sedge",</t>
+  </si>
+  <si>
+    <t>"sediments",</t>
+  </si>
+  <si>
+    <t>"seebedpreparation",</t>
+  </si>
+  <si>
+    <t>"seedfilling",</t>
+  </si>
+  <si>
+    <t>"seeding",</t>
+  </si>
+  <si>
+    <t>"seedlings",</t>
+  </si>
+  <si>
+    <t>"seedset",</t>
+  </si>
+  <si>
+    <t>"selenium",</t>
+  </si>
+  <si>
+    <t>"semistructuredinterview",</t>
+  </si>
+  <si>
+    <t>"senna",</t>
+  </si>
+  <si>
+    <t>"sennasiamea",</t>
+  </si>
+  <si>
+    <t>"sensors",</t>
+  </si>
+  <si>
+    <t>"sensoryperception",</t>
+  </si>
+  <si>
+    <t>"sequencealignment",</t>
+  </si>
+  <si>
+    <t>"sequenceanalysis,dna",</t>
+  </si>
+  <si>
+    <t>"sequestration(chemistry)",</t>
+  </si>
+  <si>
+    <t>"serviceprovision",</t>
+  </si>
+  <si>
+    <t>"sesbaniabispinosa",</t>
+  </si>
+  <si>
+    <t>"seseli",</t>
+  </si>
+  <si>
+    <t>"set-aside",</t>
+  </si>
+  <si>
+    <t>"sewagetreatment",</t>
+  </si>
+  <si>
+    <t>"sexfactors",</t>
+  </si>
+  <si>
+    <t>"shandong",</t>
+  </si>
+  <si>
+    <t>"shanghai",</t>
+  </si>
+  <si>
+    <t>"shanxi",</t>
+  </si>
+  <si>
+    <t>"shellfish",</t>
+  </si>
+  <si>
+    <t>"shift-shareanalysis",</t>
+  </si>
+  <si>
+    <t>"shiftingcultivations",</t>
+  </si>
+  <si>
+    <t>"shrimpculture",</t>
+  </si>
+  <si>
+    <t>"shrimpponds",</t>
+  </si>
+  <si>
+    <t>"shrubland",</t>
+  </si>
+  <si>
+    <t>"sichuanbasin",</t>
+  </si>
+  <si>
+    <t>"silkworm",</t>
+  </si>
+  <si>
+    <t>"similanislands",</t>
+  </si>
+  <si>
+    <t>"similanislandsnationalpark",</t>
+  </si>
+  <si>
+    <t>"similipaltigerreserve",</t>
+  </si>
+  <si>
+    <t>"simulatedrainfall",</t>
+  </si>
+  <si>
+    <t>"sirajganj",</t>
+  </si>
+  <si>
+    <t>"sitkaspruce",</t>
+  </si>
+  <si>
+    <t>"sizestructure",</t>
+  </si>
+  <si>
+    <t>"skindisease",</t>
+  </si>
+  <si>
+    <t>"slopeangle",</t>
+  </si>
+  <si>
+    <t>"slopestability",</t>
+  </si>
+  <si>
+    <t>"smallandmedium-sizedenterprise",</t>
+  </si>
+  <si>
+    <t>"smallholders",</t>
+  </si>
+  <si>
+    <t>"smallscale",</t>
+  </si>
+  <si>
+    <t>"smallscalefarmers",</t>
+  </si>
+  <si>
+    <t>"smallscalefarming",</t>
+  </si>
+  <si>
+    <t>"smallscaleindustry",</t>
+  </si>
+  <si>
+    <t>"smartagricultures",</t>
+  </si>
+  <si>
+    <t>"socialandenvironmental",</t>
+  </si>
+  <si>
+    <t>"socialaspects",</t>
+  </si>
+  <si>
+    <t>"socialdesirability",</t>
+  </si>
+  <si>
+    <t>"socialimpact",</t>
+  </si>
+  <si>
+    <t>"socialjustice",</t>
+  </si>
+  <si>
+    <t>"socialmarketing",</t>
+  </si>
+  <si>
+    <t>"socialnetwork",</t>
+  </si>
+  <si>
+    <t>"socialpolicy",</t>
+  </si>
+  <si>
+    <t>"socialproblem",</t>
+  </si>
+  <si>
+    <t>"socialscientists",</t>
+  </si>
+  <si>
+    <t>"socio-economicdevelopment",</t>
+  </si>
+  <si>
+    <t>"socioeconomicindicator",</t>
+  </si>
+  <si>
+    <t>"socioeconomicsurvey",</t>
+  </si>
+  <si>
+    <t>"sodicity",</t>
+  </si>
+  <si>
+    <t>"sodicsoil",</t>
+  </si>
+  <si>
+    <t>"soilanalysis",</t>
+  </si>
+  <si>
+    <t>"soilbacterialcommunity",</t>
+  </si>
+  <si>
+    <t>"soilbiota",</t>
+  </si>
+  <si>
+    <t>"soilchange",</t>
+  </si>
+  <si>
+    <t>"soilchanges",</t>
+  </si>
+  <si>
+    <t>"soildynamics",</t>
+  </si>
+  <si>
+    <t>"soilemission",</t>
+  </si>
+  <si>
+    <t>"soilfertilization",</t>
+  </si>
+  <si>
+    <t>"soilimprovement",</t>
+  </si>
+  <si>
+    <t>"soilmanagement",</t>
+  </si>
+  <si>
+    <t>"soilmicrobialbiomass",</t>
+  </si>
+  <si>
+    <t>"soilmicrobialbiomasscarbons",</t>
+  </si>
+  <si>
+    <t>"soilmoisturesensors",</t>
+  </si>
+  <si>
+    <t>"soilorganiccarbonstocks",</t>
+  </si>
+  <si>
+    <t>"soilpollutant",</t>
+  </si>
+  <si>
+    <t>"soilpollutants",</t>
+  </si>
+  <si>
+    <t>"soilprofile",</t>
+  </si>
+  <si>
+    <t>"soilprofiles",</t>
+  </si>
+  <si>
+    <t>"soilrespirationrates",</t>
+  </si>
+  <si>
+    <t>"soilsample",</t>
+  </si>
+  <si>
+    <t>"soiltemperature",</t>
+  </si>
+  <si>
+    <t>"soiltesting",</t>
+  </si>
+  <si>
+    <t>"soiltotalnitrogen",</t>
+  </si>
+  <si>
+    <t>"soilwatercontent",</t>
+  </si>
+  <si>
+    <t>"solanum",</t>
+  </si>
+  <si>
+    <t>"sorghummosaicvirus",</t>
+  </si>
+  <si>
+    <t>"southamerica",</t>
+  </si>
+  <si>
+    <t>"southaustralia",</t>
+  </si>
+  <si>
+    <t>"southchina",</t>
+  </si>
+  <si>
+    <t>"southernregion",</t>
+  </si>
+  <si>
+    <t>"southwestchinas",</t>
+  </si>
+  <si>
+    <t>"sowing",</t>
+  </si>
+  <si>
+    <t>"sowingdate",</t>
+  </si>
+  <si>
+    <t>"spacearrangement",</t>
+  </si>
+  <si>
+    <t>"spatialanalysis",</t>
+  </si>
+  <si>
+    <t>"spatialdifferentiation",</t>
+  </si>
+  <si>
+    <t>"spatialdistributionlaws",</t>
+  </si>
+  <si>
+    <t>"spatio-temporalanalysis",</t>
+  </si>
+  <si>
+    <t>"spatio-temporaldimensions",</t>
+  </si>
+  <si>
+    <t>"spearman'srankcorrelationcoefficients",</t>
+  </si>
+  <si>
+    <t>"specialist",</t>
+  </si>
+  <si>
+    <t>"speciation(chemistry)",</t>
+  </si>
+  <si>
+    <t>"speciescultivation",</t>
+  </si>
+  <si>
+    <t>"speciesdifferentiation",</t>
+  </si>
+  <si>
+    <t>"speciesevenness",</t>
+  </si>
+  <si>
+    <t>"speciesextinction",</t>
+  </si>
+  <si>
+    <t>"specieshabitat",</t>
+  </si>
+  <si>
+    <t>"spinaciaoleracea",</t>
+  </si>
+  <si>
+    <t>"spondiasaxillaris",</t>
+  </si>
+  <si>
+    <t>"spring",</t>
+  </si>
+  <si>
+    <t>"srilanka",</t>
+  </si>
+  <si>
+    <t>"stabilization",</t>
+  </si>
+  <si>
+    <t>"stableisotope",</t>
+  </si>
+  <si>
+    <t>"standardizedprecipitationindex",</t>
+  </si>
+  <si>
+    <t>"standstructures",</t>
+  </si>
+  <si>
+    <t>"staphyleabumalda",</t>
+  </si>
+  <si>
+    <t>"state-of-theartreviews",</t>
+  </si>
+  <si>
+    <t>"stateownedenterprise",</t>
+  </si>
+  <si>
+    <t>"statisticaldata",</t>
+  </si>
+  <si>
+    <t>"statisticalmodel",</t>
+  </si>
+  <si>
+    <t>"steepslope",</t>
+  </si>
+  <si>
+    <t>"stem",</t>
+  </si>
+  <si>
+    <t>"stems",</t>
+  </si>
+  <si>
+    <t>"stochasticity",</t>
+  </si>
+  <si>
+    <t>"strategicplanning",</t>
+  </si>
+  <si>
+    <t>"stress",</t>
+  </si>
+  <si>
+    <t>"structuralvectorautoregressionmodel",</t>
+  </si>
+  <si>
+    <t>"structureadjustments",</t>
+  </si>
+  <si>
+    <t>"structuresimilarity",</t>
+  </si>
+  <si>
+    <t>"strychnospotatorum",</t>
+  </si>
+  <si>
+    <t>"student",</t>
+  </si>
+  <si>
+    <t>"students",</t>
+  </si>
+  <si>
+    <t>"studymethod",</t>
+  </si>
+  <si>
+    <t>"stunting",</t>
+  </si>
+  <si>
+    <t>"sub-regions",</t>
+  </si>
+  <si>
+    <t>"sublethaleffect",</t>
+  </si>
+  <si>
+    <t>"subsidysystem",</t>
+  </si>
+  <si>
+    <t>"subsistenceeconomy",</t>
+  </si>
+  <si>
+    <t>"substitution",</t>
+  </si>
+  <si>
+    <t>"subtropicalforest",</t>
+  </si>
+  <si>
+    <t>"suburbanarea",</t>
+  </si>
+  <si>
+    <t>"sugar",</t>
+  </si>
+  <si>
+    <t>"sugarcaneharvesters",</t>
+  </si>
+  <si>
+    <t>"sugarcanemosaicvirus",</t>
+  </si>
+  <si>
+    <t>"sulfurcompounds",</t>
+  </si>
+  <si>
+    <t>"sulphates",</t>
+  </si>
+  <si>
+    <t>"summerlegumes",</t>
+  </si>
+  <si>
+    <t>"surfacearea",</t>
+  </si>
+  <si>
+    <t>"surfacewater",</t>
+  </si>
+  <si>
+    <t>"surveying",</t>
+  </si>
+  <si>
+    <t>"survivorship",</t>
+  </si>
+  <si>
+    <t>"susscrofadomestica",</t>
+  </si>
+  <si>
+    <t>"sustainableregionaldevelopment",</t>
+  </si>
+  <si>
+    <t>"sustainablesociety",</t>
+  </si>
+  <si>
+    <t>"sustainableutilization",</t>
+  </si>
+  <si>
+    <t>"svarmodels",</t>
+  </si>
+  <si>
+    <t>"swat",</t>
+  </si>
+  <si>
+    <t>"swertia",</t>
+  </si>
+  <si>
+    <t>"swietenia",</t>
+  </si>
+  <si>
+    <t>"swieteniamacrophylla",</t>
+  </si>
+  <si>
+    <t>"swine",</t>
+  </si>
+  <si>
+    <t>"sympatricpopulation",</t>
+  </si>
+  <si>
+    <t>"synthesis(chemical)",</t>
+  </si>
+  <si>
+    <t>"systemdevelopment",</t>
+  </si>
+  <si>
+    <t>"systemtransitions",</t>
+  </si>
+  <si>
+    <t>"tajikistan",</t>
+  </si>
+  <si>
+    <t>"takhar",</t>
+  </si>
+  <si>
+    <t>"tanzania",</t>
+  </si>
+  <si>
+    <t>"taxreform",</t>
+  </si>
+  <si>
+    <t>"taxuswallichianavar.mairei",</t>
+  </si>
+  <si>
+    <t>"tcadinol",</t>
+  </si>
+  <si>
+    <t>"teagardens",</t>
+  </si>
+  <si>
+    <t>"technicalpresentations",</t>
+  </si>
+  <si>
+    <t>"technologicalrevolution",</t>
+  </si>
+  <si>
+    <t>"telluricprospecting",</t>
+  </si>
+  <si>
+    <t>"temperateenvironment",</t>
+  </si>
+  <si>
+    <t>"temperatureeffect",</t>
+  </si>
+  <si>
+    <t>"temporalanalysis",</t>
+  </si>
+  <si>
+    <t>"termsoftrade",</t>
+  </si>
+  <si>
+    <t>"ternaryalloys",</t>
+  </si>
+  <si>
+    <t>"ternarydiagrams",</t>
+  </si>
+  <si>
+    <t>"terpenoid",</t>
+  </si>
+  <si>
+    <t>"terpinen4ol",</t>
+  </si>
+  <si>
+    <t>"terpinene",</t>
+  </si>
+  <si>
+    <t>"terpineol",</t>
+  </si>
+  <si>
+    <t>"terpinolene",</t>
+  </si>
+  <si>
+    <t>"terrain",</t>
+  </si>
+  <si>
+    <t>"terrestrialecosystem",</t>
+  </si>
+  <si>
+    <t>"terrestrialecosystems",</t>
+  </si>
+  <si>
+    <t>"theaceae",</t>
+  </si>
+  <si>
+    <t>"theobromacacao",</t>
+  </si>
+  <si>
+    <t>"thermalprocessing(foods)",</t>
+  </si>
+  <si>
+    <t>"thermopsisinflata",</t>
+  </si>
+  <si>
+    <t>"threshold",</t>
+  </si>
+  <si>
+    <t>"tibetans",</t>
+  </si>
+  <si>
+    <t>"tibetplateau",</t>
+  </si>
+  <si>
+    <t>"tillagemanagement",</t>
+  </si>
+  <si>
+    <t>"tillering",</t>
+  </si>
+  <si>
+    <t>"timeseries",</t>
+  </si>
+  <si>
+    <t>"tools",</t>
+  </si>
+  <si>
+    <t>"toonasinensis",</t>
+  </si>
+  <si>
+    <t>"top-downapproach",</t>
+  </si>
+  <si>
+    <t>"topographiceffect",</t>
+  </si>
+  <si>
+    <t>"tortricidae",</t>
+  </si>
+  <si>
+    <t>"totalenergies",</t>
+  </si>
+  <si>
+    <t>"totalorganiccarbon",</t>
+  </si>
+  <si>
+    <t>"totalphosphorus",</t>
+  </si>
+  <si>
+    <t>"tourismmarket",</t>
+  </si>
+  <si>
+    <t>"touristattraction",</t>
+  </si>
+  <si>
+    <t>"touristbehavior",</t>
+  </si>
+  <si>
+    <t>"traceelement",</t>
+  </si>
+  <si>
+    <t>"tractors(agricultural)",</t>
+  </si>
+  <si>
+    <t>"tractors(truck)",</t>
+  </si>
+  <si>
+    <t>"tradeoff",</t>
+  </si>
+  <si>
+    <t>"traditionalmanagement",</t>
+  </si>
+  <si>
+    <t>"trait-basedapproaches",</t>
+  </si>
+  <si>
+    <t>"transformation",</t>
+  </si>
+  <si>
+    <t>"transformity",</t>
+  </si>
+  <si>
+    <t>"transitionaleconomy",</t>
+  </si>
+  <si>
+    <t>"transitionzone",</t>
+  </si>
+  <si>
+    <t>"transportation",</t>
+  </si>
+  <si>
+    <t>"transportproperties",</t>
+  </si>
+  <si>
+    <t>"trap(equipment)",</t>
+  </si>
+  <si>
+    <t>"traveldemand",</t>
+  </si>
+  <si>
+    <t>"treeplanting",</t>
+  </si>
+  <si>
+    <t>"treespecies",</t>
+  </si>
+  <si>
+    <t>"treespeciescomposition",</t>
+  </si>
+  <si>
+    <t>"trendstudy",</t>
+  </si>
+  <si>
+    <t>"trifolium",</t>
+  </si>
+  <si>
+    <t>"trifoliumalexandrinum",</t>
+  </si>
+  <si>
+    <t>"trigonellafoenum-graecum",</t>
+  </si>
+  <si>
+    <t>"triticeae",</t>
+  </si>
+  <si>
+    <t>"triticumaestivuml.",</t>
+  </si>
+  <si>
+    <t>"trixis",</t>
+  </si>
+  <si>
+    <t>"trophiccascade",</t>
+  </si>
+  <si>
+    <t>"tropicalenvironment",</t>
+  </si>
+  <si>
+    <t>"tuber",</t>
+  </si>
+  <si>
+    <t>"twentyfirstcentury",</t>
+  </si>
+  <si>
+    <t>"uncertainty",</t>
+  </si>
+  <si>
+    <t>"unclassifiedbacteria",</t>
+  </si>
+  <si>
+    <t>"understory",</t>
+  </si>
+  <si>
+    <t>"ungulata",</t>
+  </si>
+  <si>
+    <t>"unitedkingdom",</t>
+  </si>
+  <si>
+    <t>"unitedstates",</t>
+  </si>
+  <si>
+    <t>"universityofconnecticut",</t>
+  </si>
+  <si>
+    <t>"unsaturatedhydrocarbons",</t>
+  </si>
+  <si>
+    <t>"uplandagriculture",</t>
+  </si>
+  <si>
+    <t>"urban-ruralmigration",</t>
+  </si>
+  <si>
+    <t>"urbandevelopment",</t>
+  </si>
+  <si>
+    <t>"urbanenvironments",</t>
+  </si>
+  <si>
+    <t>"urbanizedarea",</t>
+  </si>
+  <si>
+    <t>"urbanpopulation",</t>
+  </si>
+  <si>
+    <t>"valtellina",</t>
+  </si>
+  <si>
+    <t>"valuation",</t>
+  </si>
+  <si>
+    <t>"varietalchoice",</t>
+  </si>
+  <si>
+    <t>"varietas",</t>
+  </si>
+  <si>
+    <t>"vectorautoregression",</t>
+  </si>
+  <si>
+    <t>"vegetableoil",</t>
+  </si>
+  <si>
+    <t>"vegetationconditionindices",</t>
+  </si>
+  <si>
+    <t>"vegetationdynamics",</t>
+  </si>
+  <si>
+    <t>"vegetationtype",</t>
+  </si>
+  <si>
+    <t>"verbenone",</t>
+  </si>
+  <si>
+    <t>"verticaldistribution",</t>
+  </si>
+  <si>
+    <t>"viability",</t>
+  </si>
+  <si>
+    <t>"vicia",</t>
+  </si>
+  <si>
+    <t>"vignaumbellata",</t>
+  </si>
+  <si>
+    <t>"virus",</t>
+  </si>
+  <si>
+    <t>"visibility",</t>
+  </si>
+  <si>
+    <t>"vitamina",</t>
+  </si>
+  <si>
+    <t>"vitaminadeficiency",</t>
+  </si>
+  <si>
+    <t>"viticulture",</t>
+  </si>
+  <si>
+    <t>"volatileoil",</t>
+  </si>
+  <si>
+    <t>"volatileorganiccompounds",</t>
+  </si>
+  <si>
+    <t>"volume",</t>
+  </si>
+  <si>
+    <t>"vulnerablepopulation",</t>
+  </si>
+  <si>
+    <t>"vulnerablepopulations",</t>
+  </si>
+  <si>
+    <t>"warehouses",</t>
+  </si>
+  <si>
+    <t>"washington[unitedstates]",</t>
+  </si>
+  <si>
+    <t>"waste",</t>
+  </si>
+  <si>
+    <t>"wastemanagement",</t>
+  </si>
+  <si>
+    <t>"water-savingagricultures",</t>
+  </si>
+  <si>
+    <t>"waterconsumption",</t>
+  </si>
+  <si>
+    <t>"watercontent",</t>
+  </si>
+  <si>
+    <t>"waterenergyfoodnexus",</t>
+  </si>
+  <si>
+    <t>"waterholdingcapacity",</t>
+  </si>
+  <si>
+    <t>"waterlevels",</t>
+  </si>
+  <si>
+    <t>"watermanagement",</t>
+  </si>
+  <si>
+    <t>"waterqualityprotection",</t>
+  </si>
+  <si>
+    <t>"waterrecycling",</t>
+  </si>
+  <si>
+    <t>"waterretention",</t>
+  </si>
+  <si>
+    <t>"watersheds",</t>
+  </si>
+  <si>
+    <t>"watertreatment",</t>
+  </si>
+  <si>
+    <t>"wateruptake",</t>
+  </si>
+  <si>
+    <t>"wateruse",</t>
+  </si>
+  <si>
+    <t>"wateryield",</t>
+  </si>
+  <si>
+    <t>"waveattenuation",</t>
+  </si>
+  <si>
+    <t>"weathering",</t>
+  </si>
+  <si>
+    <t>"weathervariability",</t>
+  </si>
+  <si>
+    <t>"webbasedexpertsystem",</t>
+  </si>
+  <si>
+    <t>"webscrapings",</t>
+  </si>
+  <si>
+    <t>"websites",</t>
+  </si>
+  <si>
+    <t>"weirs",</t>
+  </si>
+  <si>
+    <t>"well",</t>
+  </si>
+  <si>
+    <t>"wellbeing",</t>
+  </si>
+  <si>
+    <t>"westernchina",</t>
+  </si>
+  <si>
+    <t>"westerneurope",</t>
+  </si>
+  <si>
+    <t>"westernghats",</t>
+  </si>
+  <si>
+    <t>"westernregion",</t>
+  </si>
+  <si>
+    <t>"wetland",</t>
+  </si>
+  <si>
+    <t>"wetlandmanagement",</t>
+  </si>
+  <si>
+    <t>"wetlandrecreationalagriculture",</t>
+  </si>
+  <si>
+    <t>"wheatcrops",</t>
+  </si>
+  <si>
+    <t>"wholefarms",</t>
+  </si>
+  <si>
+    <t>"wideareanetworks",</t>
+  </si>
+  <si>
+    <t>"wildediblefruit",</t>
+  </si>
+  <si>
+    <t>"wildplant",</t>
+  </si>
+  <si>
+    <t>"wood",</t>
+  </si>
+  <si>
+    <t>"woodyspecies",</t>
+  </si>
+  <si>
+    <t>"workercaste",</t>
+  </si>
+  <si>
+    <t>"workingmethods",</t>
+  </si>
+  <si>
+    <t>"workproductivity",</t>
+  </si>
+  <si>
+    <t>"wuhan",</t>
+  </si>
+  <si>
+    <t>"xinkaibasin",</t>
+  </si>
+  <si>
+    <t>"xipo",</t>
+  </si>
+  <si>
+    <t>"xylem",</t>
+  </si>
+  <si>
+    <t>"yak",</t>
+  </si>
+  <si>
+    <t>"yangziriver",</t>
+  </si>
+  <si>
+    <t>"yanhewan",</t>
+  </si>
+  <si>
+    <t>"yieldstress",</t>
+  </si>
+  <si>
+    <t>"yongtai",</t>
+  </si>
+  <si>
+    <t>"yulongsnowmountains",</t>
+  </si>
+  <si>
+    <t>"yunnan,chinas",</t>
+  </si>
+  <si>
+    <t>"zambia",</t>
+  </si>
+  <si>
+    <t>"zea",</t>
+  </si>
+  <si>
+    <t>"zhongjiang",</t>
+  </si>
+  <si>
+    <t>"zhungeer",</t>
+  </si>
+  <si>
+    <t>"zone",</t>
+  </si>
+  <si>
+    <t>"zoning",</t>
+  </si>
+  <si>
+    <t>"zoningsystem",</t>
+  </si>
+  <si>
+    <t>"zoogeography",</t>
+  </si>
+  <si>
+    <t>"zoospore",</t>
+  </si>
+  <si>
+    <t>c("ibuprofen",</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,8 +1732,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +1771,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -414,23 +2021,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -448,15 +2109,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -470,6 +2122,61 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D28B32-5D0E-3A47-97CD-65F1681D6062}">
   <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,502 +2513,516 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="J2" s="23" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="4" t="s">
+      <c r="L3" s="28"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="5"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="28" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="9" t="s">
+      <c r="M4" s="19"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>21</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <v>36</v>
       </c>
-      <c r="J5" s="15">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <v>56</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="18">
-        <v>1</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="12">
+      <c r="M5" s="3"/>
+      <c r="N5" s="15">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>19</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18">
+      <c r="E6" s="17"/>
+      <c r="F6" s="15">
         <v>2</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <v>33</v>
       </c>
-      <c r="J6" s="15">
+      <c r="I6" s="27"/>
+      <c r="J6" s="12">
         <v>2</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10">
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
         <v>51</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="18">
+      <c r="M6" s="3"/>
+      <c r="N6" s="15">
         <v>2</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="9">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>15</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="18">
+      <c r="E7" s="17"/>
+      <c r="F7" s="15">
         <v>3</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="G7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
         <v>23</v>
       </c>
-      <c r="J7" s="15">
+      <c r="I7" s="27"/>
+      <c r="J7" s="12">
         <v>3</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="7">
         <v>29</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="18">
+      <c r="M7" s="3"/>
+      <c r="N7" s="15">
         <v>3</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="9">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>14</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="18">
+      <c r="E8" s="17"/>
+      <c r="F8" s="15">
         <v>4</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <v>15</v>
       </c>
-      <c r="J8" s="15">
+      <c r="I8" s="27"/>
+      <c r="J8" s="12">
         <v>4</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="7">
         <v>26</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="18">
+      <c r="M8" s="3"/>
+      <c r="N8" s="15">
         <v>4</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="9">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>12</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="18">
+      <c r="E9" s="17"/>
+      <c r="F9" s="15">
         <v>5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="9">
         <v>15</v>
       </c>
-      <c r="J9" s="15">
+      <c r="I9" s="27"/>
+      <c r="J9" s="12">
         <v>5</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="7">
         <v>26</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="18">
+      <c r="M9" s="3"/>
+      <c r="N9" s="15">
         <v>5</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="9">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>12</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="18">
+      <c r="E10" s="17"/>
+      <c r="F10" s="15">
         <v>6</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <v>14</v>
       </c>
-      <c r="J10" s="15">
+      <c r="I10" s="27"/>
+      <c r="J10" s="12">
         <v>6</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="7">
         <v>26</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="18">
+      <c r="M10" s="3"/>
+      <c r="N10" s="15">
         <v>6</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="9">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>7</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>11</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="18">
+      <c r="E11" s="17"/>
+      <c r="F11" s="15">
         <v>7</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="9">
         <v>14</v>
       </c>
-      <c r="J11" s="15">
+      <c r="I11" s="27"/>
+      <c r="J11" s="12">
         <v>7</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="7">
         <v>26</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="18">
+      <c r="M11" s="3"/>
+      <c r="N11" s="15">
         <v>7</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="9">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>8</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>10</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18">
+      <c r="E12" s="17"/>
+      <c r="F12" s="15">
         <v>8</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="9">
         <v>14</v>
       </c>
-      <c r="J12" s="15">
+      <c r="I12" s="27"/>
+      <c r="J12" s="12">
         <v>8</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="7">
         <v>24</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="18">
+      <c r="M12" s="3"/>
+      <c r="N12" s="15">
         <v>8</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="9">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="15">
+      <c r="B13" s="12">
         <v>9</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>9</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="18">
+      <c r="E13" s="17"/>
+      <c r="F13" s="15">
         <v>9</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="9">
         <v>13</v>
       </c>
-      <c r="J13" s="15">
+      <c r="I13" s="27"/>
+      <c r="J13" s="12">
         <v>9</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="7">
         <v>22</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="18">
+      <c r="M13" s="3"/>
+      <c r="N13" s="15">
         <v>9</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="9">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <v>10</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>8</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="19">
+      <c r="E14" s="18"/>
+      <c r="F14" s="16">
         <v>10</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="10">
         <v>12</v>
       </c>
-      <c r="J14" s="16">
+      <c r="I14" s="27"/>
+      <c r="J14" s="13">
         <v>10</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="8">
         <v>21</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="19">
+      <c r="M14" s="4"/>
+      <c r="N14" s="16">
         <v>10</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30">
+      <c r="B15" s="5"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24">
         <v>1807</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="31">
+      <c r="E15" s="26"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="25">
         <v>2764</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30">
+      <c r="I15" s="27"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24">
         <v>1843</v>
       </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="31">
+      <c r="M15" s="26"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="25">
         <v>2353</v>
       </c>
     </row>
@@ -1316,4 +3037,4681 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E53D36-89AA-FE47-A161-BE9FD77403B5}">
+  <dimension ref="B1:H3286"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="45"/>
+      <c r="C2" s="43" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>553</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="36">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="48">
+        <v>53</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="50">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="36">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="48">
+        <v>43</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="50">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="36">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="48">
+        <v>40</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="50">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="36">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="48">
+        <v>37</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="50">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="36">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="48">
+        <v>36</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="50">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="36">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="48">
+        <v>34</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="50">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="36">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="48">
+        <v>33</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="50">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="36">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="48">
+        <v>25</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="36">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="48">
+        <v>24</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="7">
+        <v>9</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="50">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="36">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="48">
+        <v>22</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="36">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="48">
+        <v>22</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="7">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="36">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="48">
+        <v>20</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="7">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="36">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="48">
+        <v>20</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="7">
+        <v>13</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="36">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="48">
+        <v>18</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="7">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="36">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="48">
+        <v>18</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="7">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="36">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="48">
+        <v>15</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="7">
+        <v>16</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="36">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="48">
+        <v>15</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="7">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="36">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="48">
+        <v>14</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7">
+        <v>18</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="36">
+        <v>19</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="48">
+        <v>13</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="7">
+        <v>19</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="50">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="36">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="48">
+        <v>12</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="7">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="50">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="36">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="48">
+        <v>12</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="7">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="50">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="36">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="48">
+        <v>12</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="7">
+        <v>22</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="50">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="36">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="48">
+        <v>11</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="7">
+        <v>23</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="50">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="36">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="48">
+        <v>11</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="7">
+        <v>24</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="36">
+        <v>25</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="48">
+        <v>11</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="7">
+        <v>25</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="36">
+        <v>26</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="48">
+        <v>11</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="7">
+        <v>26</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="36">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="48">
+        <v>11</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="7">
+        <v>27</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="36">
+        <v>28</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="48">
+        <v>11</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="7">
+        <v>28</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="50">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="36">
+        <v>29</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="48">
+        <v>10</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="7">
+        <v>29</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="36">
+        <v>30</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="48">
+        <v>10</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="7">
+        <v>30</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="36">
+        <v>31</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="48">
+        <v>10</v>
+      </c>
+      <c r="E34" s="38"/>
+      <c r="F34" s="7">
+        <v>31</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="36">
+        <v>32</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="48">
+        <v>9</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="F35" s="7">
+        <v>32</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="36">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="48">
+        <v>9</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="7">
+        <v>33</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="36">
+        <v>34</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="48">
+        <v>9</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="7">
+        <v>34</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="36">
+        <v>35</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="48">
+        <v>9</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="7">
+        <v>35</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="36">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="48">
+        <v>8</v>
+      </c>
+      <c r="E39" s="38"/>
+      <c r="F39" s="7">
+        <v>36</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" s="50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="36">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="48">
+        <v>8</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="F40" s="7">
+        <v>37</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="36">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="48">
+        <v>8</v>
+      </c>
+      <c r="E41" s="38"/>
+      <c r="F41" s="7">
+        <v>38</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="36">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="48">
+        <v>8</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="7">
+        <v>39</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="36">
+        <v>40</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="48">
+        <v>8</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="7">
+        <v>40</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" s="50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="36">
+        <v>41</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="48">
+        <v>7</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="7">
+        <v>41</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="36">
+        <v>42</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="48">
+        <v>7</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="7">
+        <v>42</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="36">
+        <v>43</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="48">
+        <v>7</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="7">
+        <v>43</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="36">
+        <v>44</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="48">
+        <v>7</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="7">
+        <v>44</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H47" s="50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="36">
+        <v>45</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="48">
+        <v>7</v>
+      </c>
+      <c r="E48" s="38"/>
+      <c r="F48" s="7">
+        <v>45</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="36">
+        <v>46</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="48">
+        <v>6</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="F49" s="7">
+        <v>46</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H49" s="50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="36">
+        <v>47</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="48">
+        <v>6</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="F50" s="7">
+        <v>47</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="36">
+        <v>48</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="48">
+        <v>6</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="7">
+        <v>48</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="36">
+        <v>49</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="48">
+        <v>6</v>
+      </c>
+      <c r="E52" s="38"/>
+      <c r="F52" s="7">
+        <v>49</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52" s="50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="37">
+        <v>50</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="49">
+        <v>6</v>
+      </c>
+      <c r="E53" s="39"/>
+      <c r="F53" s="8">
+        <v>50</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" s="51">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2841" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2841" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2842" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2842" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2843" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2843" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2844" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2844" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2845" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2845" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2846" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2846" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2847" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2847" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2848" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2848" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2849" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2849" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2850" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2850" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2851" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2851" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2852" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2852" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2853" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2853" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2854" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2854" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2855" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2855" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2856" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2856" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2857" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2857" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2858" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2858" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2859" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2859" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2860" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2860" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2861" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2861" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2862" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2862" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2863" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2863" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2864" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2864" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2865" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2865" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2866" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2866" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2867" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2867" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2868" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2868" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2869" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2869" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2869">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2870" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2870" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2871" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2871" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2872" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2872" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2873" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2873" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2874" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2874" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2875" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2875" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2876" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2876" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2877" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2877" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2878" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2878" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2879" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2879" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2880" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2880" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2881" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2881" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2882" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2882" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2883" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2883" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2884" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2884" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2885" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2885" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2886" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2886" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2887" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2887" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2888" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2888" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2889" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2889" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2890" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2890" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2891" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2891" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2892" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2892" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2893" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2893" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2894" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2894" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2895" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2895" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2896" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2896" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2897" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2897" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2898" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2898" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2899" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2899" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2900" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2900" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2901" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2901" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2902" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2902" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2903" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2903" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2904" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2904" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2905" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2905" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2906" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2906" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2907" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2907" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2908" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2908" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2909" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2909" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2910" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2910" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2911" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2911" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2912" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2912" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2913" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2913" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2914" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2914" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2915" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2915" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2916" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2916" t="s">
+        <v>250</v>
+      </c>
+      <c r="H2916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2917" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2917" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2918" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2918" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2919" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2919" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2920" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2920" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2921" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2921" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2922" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2922" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2923" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2923" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2924" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2924" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2925" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2925" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2926" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2926" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2927" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2927" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2928" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2928" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2929" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2929" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2930" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2930" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2931" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2931" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2932" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2932" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2933" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2933" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2934" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2934" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2935" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2935" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2936" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2936" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2937" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2937" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2938" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2938" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2939" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2939" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2940" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2940" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2941" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2941" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2942" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2942" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2943" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2943" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2944" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2944" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2945" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2945" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2946" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2946" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2947" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2947" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2948" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2948" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2949" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2949" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2949">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2950" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2950" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2951" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2951" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2952" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2952" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2953" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2953" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2954" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2954" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2955" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2955" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2956" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2956" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2957" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2957" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2958" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2958" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2959" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2959" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2960" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2960" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2961" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2961" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2962" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2962" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2963" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2963" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2964" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2964" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2965" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2965" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2966" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2966" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2967" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2967" t="s">
+        <v>293</v>
+      </c>
+      <c r="H2967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2968" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2968" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2969" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2969" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2970" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2970" t="s">
+        <v>295</v>
+      </c>
+      <c r="H2970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2971" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2971" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2972" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2972" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2973" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2973" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2974" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2974" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2975" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2975" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2976" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2976" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2977" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2977" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2978" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2978" t="s">
+        <v>302</v>
+      </c>
+      <c r="H2978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2979" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2979" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2980" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2980" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2981" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2981" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2982" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2982" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2983" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2983" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2984" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2984" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2985" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2985" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2986" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2986" t="s">
+        <v>308</v>
+      </c>
+      <c r="H2986">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2987" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2987" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2988" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2988" t="s">
+        <v>310</v>
+      </c>
+      <c r="H2988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2989" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2989" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2990" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2990" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2991" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2991" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2992" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2992" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2993" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2993" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2994" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2994" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2995" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2995" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2996" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2996" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2997" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2997" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2997">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2998" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2998" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2998">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2999" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G2999" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2999">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3000" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3000" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3000">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3001" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3001" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3001">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3002" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3002" t="s">
+        <v>322</v>
+      </c>
+      <c r="H3002">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3003" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3003" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3004" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3004" t="s">
+        <v>323</v>
+      </c>
+      <c r="H3004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3005" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3005" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3006" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3006" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3006">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3007" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3007" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3008" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3008" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3009" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3009" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3010" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3010" t="s">
+        <v>329</v>
+      </c>
+      <c r="H3010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3011" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3011" t="s">
+        <v>330</v>
+      </c>
+      <c r="H3011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3012" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3012" t="s">
+        <v>331</v>
+      </c>
+      <c r="H3012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3013" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3013" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3013">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3014" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3014" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3015" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3015" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3016" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3016" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3017" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3017" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3017">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3018" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3018" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3019" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3019" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3020" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3020" t="s">
+        <v>335</v>
+      </c>
+      <c r="H3020">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3021" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3021" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3022" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3022" t="s">
+        <v>336</v>
+      </c>
+      <c r="H3022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3023" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3023" t="s">
+        <v>337</v>
+      </c>
+      <c r="H3023">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3024" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3024" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3025" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3025" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3026" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3026" t="s">
+        <v>340</v>
+      </c>
+      <c r="H3026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3027" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3027" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3028" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3028" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3029" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3029" t="s">
+        <v>343</v>
+      </c>
+      <c r="H3029">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3030" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3030" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3031" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3031" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3031">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3032" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3032" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3033" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3033" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3034" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3034" t="s">
+        <v>348</v>
+      </c>
+      <c r="H3034">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3035" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3035" t="s">
+        <v>349</v>
+      </c>
+      <c r="H3035">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3036" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3036" t="s">
+        <v>350</v>
+      </c>
+      <c r="H3036">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3037" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3037" t="s">
+        <v>351</v>
+      </c>
+      <c r="H3037">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3038" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3038" t="s">
+        <v>352</v>
+      </c>
+      <c r="H3038">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3039" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3039" t="s">
+        <v>353</v>
+      </c>
+      <c r="H3039">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3040" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3040" t="s">
+        <v>354</v>
+      </c>
+      <c r="H3040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3041" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3041" t="s">
+        <v>355</v>
+      </c>
+      <c r="H3041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3042" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3042" t="s">
+        <v>356</v>
+      </c>
+      <c r="H3042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3043" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3043" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3043">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3044" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3044" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3045" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3045" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3045">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3046" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3046" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3047" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3047" t="s">
+        <v>357</v>
+      </c>
+      <c r="H3047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3048" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3048" t="s">
+        <v>358</v>
+      </c>
+      <c r="H3048">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3049" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3049" t="s">
+        <v>359</v>
+      </c>
+      <c r="H3049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3050" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3050" t="s">
+        <v>360</v>
+      </c>
+      <c r="H3050">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3051" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3051" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3051">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3052" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3052" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3052">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3053" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3053" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3053">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3054" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3054" t="s">
+        <v>362</v>
+      </c>
+      <c r="H3054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3055" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3055" t="s">
+        <v>363</v>
+      </c>
+      <c r="H3055">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3056" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3056" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3057" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3057" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3058" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3058" t="s">
+        <v>366</v>
+      </c>
+      <c r="H3058">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3059" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3059" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3059">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3060" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3060" t="s">
+        <v>367</v>
+      </c>
+      <c r="H3060">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3061" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3061" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3062" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3062" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3063" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3063" t="s">
+        <v>369</v>
+      </c>
+      <c r="H3063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3064" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3064" t="s">
+        <v>370</v>
+      </c>
+      <c r="H3064">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3065" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3065" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3066" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3066" t="s">
+        <v>371</v>
+      </c>
+      <c r="H3066">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3067" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3067" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3068" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3068" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3069" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3069" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3070" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3070" t="s">
+        <v>374</v>
+      </c>
+      <c r="H3070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3071" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3071" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3071">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3072" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3072" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3072">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3073" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3073" t="s">
+        <v>377</v>
+      </c>
+      <c r="H3073">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3074" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3074" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3075" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3075" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3075">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3076" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3076" t="s">
+        <v>379</v>
+      </c>
+      <c r="H3076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3077" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3077" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3078" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3078" t="s">
+        <v>381</v>
+      </c>
+      <c r="H3078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3079" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3079" t="s">
+        <v>382</v>
+      </c>
+      <c r="H3079">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3080" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3080" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3080">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3081" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3081" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3081">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3082" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3082" t="s">
+        <v>384</v>
+      </c>
+      <c r="H3082">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3083" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3083" t="s">
+        <v>385</v>
+      </c>
+      <c r="H3083">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3084" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3084" t="s">
+        <v>386</v>
+      </c>
+      <c r="H3084">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3085" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3085" t="s">
+        <v>387</v>
+      </c>
+      <c r="H3085">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3086" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3086" t="s">
+        <v>388</v>
+      </c>
+      <c r="H3086">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3087" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3087" t="s">
+        <v>389</v>
+      </c>
+      <c r="H3087">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3088" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3088" t="s">
+        <v>390</v>
+      </c>
+      <c r="H3088">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3089" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3089" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3089">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3090" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3090" t="s">
+        <v>392</v>
+      </c>
+      <c r="H3090">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3091" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3091" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3091">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3092" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3092" t="s">
+        <v>394</v>
+      </c>
+      <c r="H3092">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3093" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3093" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3093">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3094" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3094" t="s">
+        <v>396</v>
+      </c>
+      <c r="H3094">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3095" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3095" t="s">
+        <v>397</v>
+      </c>
+      <c r="H3095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3096" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3096" t="s">
+        <v>398</v>
+      </c>
+      <c r="H3096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3097" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3097" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3098" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3098" t="s">
+        <v>399</v>
+      </c>
+      <c r="H3098">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3099" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3099" t="s">
+        <v>400</v>
+      </c>
+      <c r="H3099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3100" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3100" t="s">
+        <v>401</v>
+      </c>
+      <c r="H3100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3101" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3101" t="s">
+        <v>402</v>
+      </c>
+      <c r="H3101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3102" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3102" t="s">
+        <v>403</v>
+      </c>
+      <c r="H3102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3103" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3103" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3104" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3104" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3105" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3105" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3106" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3106" t="s">
+        <v>406</v>
+      </c>
+      <c r="H3106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3107" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3107" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3108" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3108" t="s">
+        <v>407</v>
+      </c>
+      <c r="H3108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3109" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3109" t="s">
+        <v>408</v>
+      </c>
+      <c r="H3109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3110" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3110" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3111" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3111" t="s">
+        <v>409</v>
+      </c>
+      <c r="H3111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3112" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3112" t="s">
+        <v>410</v>
+      </c>
+      <c r="H3112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3113" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3113" t="s">
+        <v>411</v>
+      </c>
+      <c r="H3113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3114" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3114" t="s">
+        <v>412</v>
+      </c>
+      <c r="H3114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3115" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3115" t="s">
+        <v>413</v>
+      </c>
+      <c r="H3115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3116" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3116" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3117" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3117" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3118" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3118" t="s">
+        <v>415</v>
+      </c>
+      <c r="H3118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3119" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3119" t="s">
+        <v>416</v>
+      </c>
+      <c r="H3119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3120" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3120" t="s">
+        <v>417</v>
+      </c>
+      <c r="H3120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3121" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3121" t="s">
+        <v>418</v>
+      </c>
+      <c r="H3121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3122" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3122" t="s">
+        <v>419</v>
+      </c>
+      <c r="H3122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3123" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3123" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3124" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3124" t="s">
+        <v>420</v>
+      </c>
+      <c r="H3124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3125" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3125" t="s">
+        <v>421</v>
+      </c>
+      <c r="H3125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3126" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3126" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3127" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3127" t="s">
+        <v>423</v>
+      </c>
+      <c r="H3127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3128" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3128" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3129" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3129" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3130" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3130" t="s">
+        <v>424</v>
+      </c>
+      <c r="H3130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3131" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3131" t="s">
+        <v>425</v>
+      </c>
+      <c r="H3131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3132" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3132" t="s">
+        <v>426</v>
+      </c>
+      <c r="H3132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3133" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3133" t="s">
+        <v>427</v>
+      </c>
+      <c r="H3133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3134" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3134" t="s">
+        <v>428</v>
+      </c>
+      <c r="H3134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3135" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3135" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3136" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3136" t="s">
+        <v>429</v>
+      </c>
+      <c r="H3136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3137" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3137" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3138" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3138" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3139" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3139" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3140" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3140" t="s">
+        <v>430</v>
+      </c>
+      <c r="H3140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3141" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3141" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3142" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3142" t="s">
+        <v>432</v>
+      </c>
+      <c r="H3142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3143" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3143" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3144" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3144" t="s">
+        <v>434</v>
+      </c>
+      <c r="H3144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3145" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3145" t="s">
+        <v>435</v>
+      </c>
+      <c r="H3145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3146" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3146" t="s">
+        <v>436</v>
+      </c>
+      <c r="H3146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3147" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3147" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3148" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3148" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3149" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3149" t="s">
+        <v>439</v>
+      </c>
+      <c r="H3149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3150" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3150" t="s">
+        <v>440</v>
+      </c>
+      <c r="H3150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3151" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3151" t="s">
+        <v>441</v>
+      </c>
+      <c r="H3151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3152" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3152" t="s">
+        <v>442</v>
+      </c>
+      <c r="H3152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3153" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3153" t="s">
+        <v>443</v>
+      </c>
+      <c r="H3153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3154" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3154" t="s">
+        <v>444</v>
+      </c>
+      <c r="H3154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3155" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3155" t="s">
+        <v>445</v>
+      </c>
+      <c r="H3155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3156" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3156" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3157" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3157" t="s">
+        <v>446</v>
+      </c>
+      <c r="H3157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3158" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3158" t="s">
+        <v>447</v>
+      </c>
+      <c r="H3158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3159" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3159" t="s">
+        <v>448</v>
+      </c>
+      <c r="H3159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3160" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3160" t="s">
+        <v>449</v>
+      </c>
+      <c r="H3160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3161" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3161" t="s">
+        <v>450</v>
+      </c>
+      <c r="H3161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3162" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3162" t="s">
+        <v>451</v>
+      </c>
+      <c r="H3162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3163" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3163" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3164" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3164" t="s">
+        <v>452</v>
+      </c>
+      <c r="H3164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3165" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3165" t="s">
+        <v>453</v>
+      </c>
+      <c r="H3165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3166" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3166" t="s">
+        <v>454</v>
+      </c>
+      <c r="H3166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3167" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3167" t="s">
+        <v>455</v>
+      </c>
+      <c r="H3167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3168" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3168" t="s">
+        <v>456</v>
+      </c>
+      <c r="H3168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3169" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3169" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3170" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3170" t="s">
+        <v>457</v>
+      </c>
+      <c r="H3170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3171" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3171" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3172" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3172" t="s">
+        <v>458</v>
+      </c>
+      <c r="H3172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3173" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3173" t="s">
+        <v>459</v>
+      </c>
+      <c r="H3173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3174" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3174" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3175" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3175" t="s">
+        <v>460</v>
+      </c>
+      <c r="H3175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3176" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3176" t="s">
+        <v>461</v>
+      </c>
+      <c r="H3176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3177" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3177" t="s">
+        <v>462</v>
+      </c>
+      <c r="H3177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3178" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3178" t="s">
+        <v>463</v>
+      </c>
+      <c r="H3178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3179" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3179" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3180" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3180" t="s">
+        <v>464</v>
+      </c>
+      <c r="H3180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3181" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3181" t="s">
+        <v>465</v>
+      </c>
+      <c r="H3181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3182" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3182" t="s">
+        <v>466</v>
+      </c>
+      <c r="H3182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3183" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3183" t="s">
+        <v>467</v>
+      </c>
+      <c r="H3183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3184" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3184" t="s">
+        <v>468</v>
+      </c>
+      <c r="H3184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3185" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3185" t="s">
+        <v>469</v>
+      </c>
+      <c r="H3185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3186" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3186" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3187" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3187" t="s">
+        <v>470</v>
+      </c>
+      <c r="H3187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3188" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3188" t="s">
+        <v>471</v>
+      </c>
+      <c r="H3188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3189" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3189" t="s">
+        <v>472</v>
+      </c>
+      <c r="H3189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3190" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3190" t="s">
+        <v>473</v>
+      </c>
+      <c r="H3190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3191" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3191" t="s">
+        <v>474</v>
+      </c>
+      <c r="H3191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3192" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3192" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3193" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3193" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3194" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3194" t="s">
+        <v>475</v>
+      </c>
+      <c r="H3194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3195" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3195" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3196" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3196" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3197" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3197" t="s">
+        <v>476</v>
+      </c>
+      <c r="H3197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3198" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3198" t="s">
+        <v>477</v>
+      </c>
+      <c r="H3198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3199" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3199" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3200" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3200" t="s">
+        <v>479</v>
+      </c>
+      <c r="H3200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3201" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3201" t="s">
+        <v>480</v>
+      </c>
+      <c r="H3201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3202" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3202" t="s">
+        <v>481</v>
+      </c>
+      <c r="H3202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3203" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3203" t="s">
+        <v>482</v>
+      </c>
+      <c r="H3203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3204" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3204" t="s">
+        <v>483</v>
+      </c>
+      <c r="H3204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3205" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3205" t="s">
+        <v>484</v>
+      </c>
+      <c r="H3205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3206" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3206" t="s">
+        <v>485</v>
+      </c>
+      <c r="H3206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3207" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3207" t="s">
+        <v>486</v>
+      </c>
+      <c r="H3207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3208" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3208" t="s">
+        <v>487</v>
+      </c>
+      <c r="H3208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3209" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3209" t="s">
+        <v>488</v>
+      </c>
+      <c r="H3209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3210" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3210" t="s">
+        <v>489</v>
+      </c>
+      <c r="H3210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3211" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3211" t="s">
+        <v>490</v>
+      </c>
+      <c r="H3211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3212" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3212" t="s">
+        <v>491</v>
+      </c>
+      <c r="H3212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3213" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3213" t="s">
+        <v>492</v>
+      </c>
+      <c r="H3213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3214" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3214" t="s">
+        <v>493</v>
+      </c>
+      <c r="H3214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3215" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3215" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3216" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3216" t="s">
+        <v>494</v>
+      </c>
+      <c r="H3216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3217" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3217" t="s">
+        <v>495</v>
+      </c>
+      <c r="H3217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3218" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3218" t="s">
+        <v>496</v>
+      </c>
+      <c r="H3218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3219" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3219" t="s">
+        <v>497</v>
+      </c>
+      <c r="H3219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3220" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3220" t="s">
+        <v>498</v>
+      </c>
+      <c r="H3220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3221" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3221" t="s">
+        <v>499</v>
+      </c>
+      <c r="H3221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3222" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3222" t="s">
+        <v>500</v>
+      </c>
+      <c r="H3222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3223" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3223" t="s">
+        <v>501</v>
+      </c>
+      <c r="H3223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3224" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3224" t="s">
+        <v>502</v>
+      </c>
+      <c r="H3224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3225" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3225" t="s">
+        <v>503</v>
+      </c>
+      <c r="H3225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3226" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3226" t="s">
+        <v>504</v>
+      </c>
+      <c r="H3226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3227" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3227" t="s">
+        <v>505</v>
+      </c>
+      <c r="H3227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3228" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3228" t="s">
+        <v>506</v>
+      </c>
+      <c r="H3228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3229" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3229" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3230" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3230" t="s">
+        <v>508</v>
+      </c>
+      <c r="H3230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3231" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3231" t="s">
+        <v>509</v>
+      </c>
+      <c r="H3231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3232" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3232" t="s">
+        <v>510</v>
+      </c>
+      <c r="H3232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3233" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3233" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3234" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3234" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3235" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3235" t="s">
+        <v>511</v>
+      </c>
+      <c r="H3235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3236" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3236" t="s">
+        <v>512</v>
+      </c>
+      <c r="H3236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3237" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3237" t="s">
+        <v>513</v>
+      </c>
+      <c r="H3237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3238" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3238" t="s">
+        <v>514</v>
+      </c>
+      <c r="H3238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3239" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3239" t="s">
+        <v>515</v>
+      </c>
+      <c r="H3239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3240" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3240" t="s">
+        <v>516</v>
+      </c>
+      <c r="H3240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3241" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3241" t="s">
+        <v>517</v>
+      </c>
+      <c r="H3241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3242" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3242" t="s">
+        <v>518</v>
+      </c>
+      <c r="H3242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3243" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3243" t="s">
+        <v>519</v>
+      </c>
+      <c r="H3243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3244" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3244" t="s">
+        <v>520</v>
+      </c>
+      <c r="H3244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3245" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3245" t="s">
+        <v>521</v>
+      </c>
+      <c r="H3245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3246" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3246" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3247" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3247" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3248" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3248" t="s">
+        <v>522</v>
+      </c>
+      <c r="H3248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3249" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3249" t="s">
+        <v>523</v>
+      </c>
+      <c r="H3249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3250" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3250" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3251" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3251" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3252" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3252" t="s">
+        <v>524</v>
+      </c>
+      <c r="H3252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3253" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3253" t="s">
+        <v>525</v>
+      </c>
+      <c r="H3253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3254" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3254" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3255" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3255" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3256" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3256" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3257" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3257" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3258" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3258" t="s">
+        <v>526</v>
+      </c>
+      <c r="H3258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3259" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3259" t="s">
+        <v>527</v>
+      </c>
+      <c r="H3259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3260" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3260" t="s">
+        <v>528</v>
+      </c>
+      <c r="H3260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3261" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3261" t="s">
+        <v>529</v>
+      </c>
+      <c r="H3261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3262" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3262" t="s">
+        <v>530</v>
+      </c>
+      <c r="H3262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3263" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3263" t="s">
+        <v>531</v>
+      </c>
+      <c r="H3263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3264" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3264" t="s">
+        <v>532</v>
+      </c>
+      <c r="H3264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3265" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3265" t="s">
+        <v>533</v>
+      </c>
+      <c r="H3265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3266" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3266" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3267" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3267" t="s">
+        <v>534</v>
+      </c>
+      <c r="H3267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3268" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3268" t="s">
+        <v>535</v>
+      </c>
+      <c r="H3268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3269" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3269" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3270" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3270" t="s">
+        <v>536</v>
+      </c>
+      <c r="H3270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3271" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3271" t="s">
+        <v>537</v>
+      </c>
+      <c r="H3271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3272" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3272" t="s">
+        <v>538</v>
+      </c>
+      <c r="H3272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3273" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3273" t="s">
+        <v>539</v>
+      </c>
+      <c r="H3273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3274" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3274" t="s">
+        <v>540</v>
+      </c>
+      <c r="H3274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3275" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3275" t="s">
+        <v>541</v>
+      </c>
+      <c r="H3275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3276" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3276" t="s">
+        <v>542</v>
+      </c>
+      <c r="H3276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3277" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3277" t="s">
+        <v>543</v>
+      </c>
+      <c r="H3277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3278" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3278" t="s">
+        <v>544</v>
+      </c>
+      <c r="H3278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3279" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3279" t="s">
+        <v>545</v>
+      </c>
+      <c r="H3279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3280" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3280" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3281" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3281" t="s">
+        <v>546</v>
+      </c>
+      <c r="H3281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3282" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3282" t="s">
+        <v>547</v>
+      </c>
+      <c r="H3282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3283" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3283" t="s">
+        <v>548</v>
+      </c>
+      <c r="H3283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3284" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3284" t="s">
+        <v>549</v>
+      </c>
+      <c r="H3284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3285" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3285" t="s">
+        <v>550</v>
+      </c>
+      <c r="H3285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3286" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3286" t="s">
+        <v>551</v>
+      </c>
+      <c r="H3286">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/excel-organize.xlsx
+++ b/output/excel-organize.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanshakya/Desktop/mom-ag_services/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747A400F-A5E9-C54D-8AA0-BE10B61D5722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3495602-6B58-3A46-974F-0FF7762A00C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{D48A5087-0F85-9648-B34D-C644C0BC30EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{D48A5087-0F85-9648-B34D-C644C0BC30EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare1-2_Div" sheetId="1" r:id="rId1"/>
     <sheet name="List-All" sheetId="2" r:id="rId2"/>
+    <sheet name="Author-5_yrs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="579">
   <si>
     <t>"conservation",</t>
   </si>
@@ -1702,6 +1703,75 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>"carryingcapacity",</t>
+  </si>
+  <si>
+    <t>"disease",</t>
+  </si>
+  <si>
+    <t>"draughtanimals",</t>
+  </si>
+  <si>
+    <t>"geneticresources",</t>
+  </si>
+  <si>
+    <t>"landdegradation",</t>
+  </si>
+  <si>
+    <t>"landresources",</t>
+  </si>
+  <si>
+    <t>"magnaporthegrisea",</t>
+  </si>
+  <si>
+    <t>"mgr-fingerprinting",</t>
+  </si>
+  <si>
+    <t>"mountainenvironment",</t>
+  </si>
+  <si>
+    <t>"nbudget",</t>
+  </si>
+  <si>
+    <t>"pyriculariagrisea",</t>
+  </si>
+  <si>
+    <t>"subsistenceagriculture",</t>
+  </si>
+  <si>
+    <t>"survey",</t>
+  </si>
+  <si>
+    <t>"sustainableproductivity",</t>
+  </si>
+  <si>
+    <t>"tdndemandandsupply",</t>
+  </si>
+  <si>
+    <t>"traditionalagriculture",</t>
+  </si>
+  <si>
+    <t>"traditionalfarmingsystem",</t>
+  </si>
+  <si>
+    <t>"transformedagriculture")</t>
+  </si>
+  <si>
+    <t>"utilization",</t>
+  </si>
+  <si>
+    <t>"varietalmixtures",</t>
+  </si>
+  <si>
+    <t>"yieldlosses",</t>
   </si>
 </sst>
 </file>
@@ -2123,24 +2193,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2150,12 +2202,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2175,6 +2221,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2513,50 +2583,50 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="27"/>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="30"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="27"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="28"/>
+      <c r="L3" s="46"/>
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="30"/>
+      <c r="P3" s="48"/>
     </row>
     <row r="4" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
@@ -3043,7 +3113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E53D36-89AA-FE47-A161-BE9FD77403B5}">
   <dimension ref="B1:H3286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3051,1091 +3121,1091 @@
   <cols>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="29" customWidth="1"/>
     <col min="6" max="6" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="34"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="52" t="s">
         <v>554</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="52" t="s">
         <v>555</v>
       </c>
-      <c r="H2" s="44"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="45" t="s">
         <v>553</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="44" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="36">
+      <c r="B4" s="30">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="40">
         <v>53</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="42">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="36">
+      <c r="B5" s="30">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="40">
         <v>43</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="7">
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="42">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="36">
+      <c r="B6" s="30">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="40">
         <v>40</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="7">
         <v>3</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="42">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="36">
+      <c r="B7" s="30">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="40">
         <v>37</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="7">
         <v>4</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="42">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="36">
+      <c r="B8" s="30">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="40">
         <v>36</v>
       </c>
-      <c r="E8" s="38"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="7">
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="42">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="36">
+      <c r="B9" s="30">
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="40">
         <v>34</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="7">
         <v>6</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="42">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="36">
+      <c r="B10" s="30">
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="40">
         <v>33</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="7">
         <v>7</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="42">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="36">
+      <c r="B11" s="30">
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="40">
         <v>25</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="7">
         <v>8</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="42">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="36">
+      <c r="B12" s="30">
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="40">
         <v>24</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="7">
         <v>9</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="42">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="36">
+      <c r="B13" s="30">
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="40">
         <v>22</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="7">
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="42">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="36">
+      <c r="B14" s="30">
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="40">
         <v>22</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="7">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="42">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="36">
+      <c r="B15" s="30">
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="40">
         <v>20</v>
       </c>
-      <c r="E15" s="38"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="7">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="42">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="36">
+      <c r="B16" s="30">
         <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="40">
         <v>20</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="7">
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="42">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="36">
+      <c r="B17" s="30">
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="40">
         <v>18</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="7">
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="42">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="36">
+      <c r="B18" s="30">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="40">
         <v>18</v>
       </c>
-      <c r="E18" s="38"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="7">
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="42">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="36">
+      <c r="B19" s="30">
         <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="40">
         <v>15</v>
       </c>
-      <c r="E19" s="38"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="7">
         <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="42">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="36">
+      <c r="B20" s="30">
         <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="40">
         <v>15</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="7">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="42">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="36">
+      <c r="B21" s="30">
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="40">
         <v>14</v>
       </c>
-      <c r="E21" s="38"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="7">
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="42">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="36">
+      <c r="B22" s="30">
         <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="40">
         <v>13</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="7">
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="42">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="36">
+      <c r="B23" s="30">
         <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="40">
         <v>12</v>
       </c>
-      <c r="E23" s="38"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="7">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="42">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="36">
+      <c r="B24" s="30">
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="40">
         <v>12</v>
       </c>
-      <c r="E24" s="38"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="7">
         <v>21</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="42">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="36">
+      <c r="B25" s="30">
         <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="40">
         <v>12</v>
       </c>
-      <c r="E25" s="38"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="7">
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="42">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="36">
+      <c r="B26" s="30">
         <v>23</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="40">
         <v>11</v>
       </c>
-      <c r="E26" s="38"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="7">
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="42">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="36">
+      <c r="B27" s="30">
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="40">
         <v>11</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="7">
         <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="42">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="36">
+      <c r="B28" s="30">
         <v>25</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="40">
         <v>11</v>
       </c>
-      <c r="E28" s="38"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="7">
         <v>25</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="42">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="36">
+      <c r="B29" s="30">
         <v>26</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="40">
         <v>11</v>
       </c>
-      <c r="E29" s="38"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="7">
         <v>26</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="42">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="36">
+      <c r="B30" s="30">
         <v>27</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="40">
         <v>11</v>
       </c>
-      <c r="E30" s="38"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="7">
         <v>27</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="42">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="36">
+      <c r="B31" s="30">
         <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="40">
         <v>11</v>
       </c>
-      <c r="E31" s="38"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="7">
         <v>28</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="42">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="36">
+      <c r="B32" s="30">
         <v>29</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="40">
         <v>10</v>
       </c>
-      <c r="E32" s="38"/>
+      <c r="E32" s="32"/>
       <c r="F32" s="7">
         <v>29</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32" s="42">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="36">
+      <c r="B33" s="30">
         <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="40">
         <v>10</v>
       </c>
-      <c r="E33" s="38"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="7">
         <v>30</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33" s="42">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="36">
+      <c r="B34" s="30">
         <v>31</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="40">
         <v>10</v>
       </c>
-      <c r="E34" s="38"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="7">
         <v>31</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="50">
+      <c r="H34" s="42">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="36">
+      <c r="B35" s="30">
         <v>32</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="40">
         <v>9</v>
       </c>
-      <c r="E35" s="38"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="7">
         <v>32</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="50">
+      <c r="H35" s="42">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="36">
+      <c r="B36" s="30">
         <v>33</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="40">
         <v>9</v>
       </c>
-      <c r="E36" s="38"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="7">
         <v>33</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36" s="42">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="36">
+      <c r="B37" s="30">
         <v>34</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="40">
         <v>9</v>
       </c>
-      <c r="E37" s="38"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="7">
         <v>34</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37" s="42">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="36">
+      <c r="B38" s="30">
         <v>35</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="40">
         <v>9</v>
       </c>
-      <c r="E38" s="38"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="7">
         <v>35</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="50">
+      <c r="H38" s="42">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="36">
+      <c r="B39" s="30">
         <v>36</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="40">
         <v>8</v>
       </c>
-      <c r="E39" s="38"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="7">
         <v>36</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39" s="42">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="36">
+      <c r="B40" s="30">
         <v>37</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="40">
         <v>8</v>
       </c>
-      <c r="E40" s="38"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="7">
         <v>37</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H40" s="50">
+      <c r="H40" s="42">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="36">
+      <c r="B41" s="30">
         <v>38</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="48">
+      <c r="D41" s="40">
         <v>8</v>
       </c>
-      <c r="E41" s="38"/>
+      <c r="E41" s="32"/>
       <c r="F41" s="7">
         <v>38</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H41" s="50">
+      <c r="H41" s="42">
         <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="36">
+      <c r="B42" s="30">
         <v>39</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="48">
+      <c r="D42" s="40">
         <v>8</v>
       </c>
-      <c r="E42" s="38"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="7">
         <v>39</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H42" s="50">
+      <c r="H42" s="42">
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="36">
+      <c r="B43" s="30">
         <v>40</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="40">
         <v>8</v>
       </c>
-      <c r="E43" s="38"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="7">
         <v>40</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="50">
+      <c r="H43" s="42">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="36">
+      <c r="B44" s="30">
         <v>41</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="40">
         <v>7</v>
       </c>
-      <c r="E44" s="38"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="7">
         <v>41</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44" s="42">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="36">
+      <c r="B45" s="30">
         <v>42</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D45" s="40">
         <v>7</v>
       </c>
-      <c r="E45" s="38"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="7">
         <v>42</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="50">
+      <c r="H45" s="42">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="36">
+      <c r="B46" s="30">
         <v>43</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="48">
+      <c r="D46" s="40">
         <v>7</v>
       </c>
-      <c r="E46" s="38"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="7">
         <v>43</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="50">
+      <c r="H46" s="42">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="36">
+      <c r="B47" s="30">
         <v>44</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="48">
+      <c r="D47" s="40">
         <v>7</v>
       </c>
-      <c r="E47" s="38"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="7">
         <v>44</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H47" s="50">
+      <c r="H47" s="42">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="36">
+      <c r="B48" s="30">
         <v>45</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D48" s="40">
         <v>7</v>
       </c>
-      <c r="E48" s="38"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="7">
         <v>45</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="42">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="36">
+      <c r="B49" s="30">
         <v>46</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="48">
+      <c r="D49" s="40">
         <v>6</v>
       </c>
-      <c r="E49" s="38"/>
+      <c r="E49" s="32"/>
       <c r="F49" s="7">
         <v>46</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H49" s="50">
+      <c r="H49" s="42">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="36">
+      <c r="B50" s="30">
         <v>47</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="48">
+      <c r="D50" s="40">
         <v>6</v>
       </c>
-      <c r="E50" s="38"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="7">
         <v>47</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H50" s="50">
+      <c r="H50" s="42">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="36">
+      <c r="B51" s="30">
         <v>48</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="48">
+      <c r="D51" s="40">
         <v>6</v>
       </c>
-      <c r="E51" s="38"/>
+      <c r="E51" s="32"/>
       <c r="F51" s="7">
         <v>48</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="50">
+      <c r="H51" s="42">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="36">
+      <c r="B52" s="30">
         <v>49</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="48">
+      <c r="D52" s="40">
         <v>6</v>
       </c>
-      <c r="E52" s="38"/>
+      <c r="E52" s="32"/>
       <c r="F52" s="7">
         <v>49</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H52" s="50">
+      <c r="H52" s="42">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="37">
+      <c r="B53" s="31">
         <v>50</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="49">
+      <c r="D53" s="41">
         <v>6</v>
       </c>
-      <c r="E53" s="39"/>
+      <c r="E53" s="33"/>
       <c r="F53" s="8">
         <v>50</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H53" s="51">
+      <c r="H53" s="43">
         <v>23</v>
       </c>
     </row>
@@ -7714,4 +7784,272 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ABD099-E1DF-EA44-BDEF-3E860032F67C}">
+  <dimension ref="B2:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>562</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>563</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>564</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>565</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>567</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>569</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>570</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>571</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>572</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>573</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>574</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>575</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>576</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>577</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>578</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/excel-organize.xlsx
+++ b/output/excel-organize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanshakya/Desktop/mom-ag_services/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3495602-6B58-3A46-974F-0FF7762A00C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF8EAAD-D338-484A-A703-EDDE7CD3DF60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{D48A5087-0F85-9648-B34D-C644C0BC30EB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="598">
   <si>
     <t>"conservation",</t>
   </si>
@@ -1705,73 +1705,130 @@
     <t>Index</t>
   </si>
   <si>
-    <t>word</t>
-  </si>
-  <si>
     <t>freq</t>
   </si>
   <si>
-    <t>"carryingcapacity",</t>
-  </si>
-  <si>
-    <t>"disease",</t>
-  </si>
-  <si>
-    <t>"draughtanimals",</t>
-  </si>
-  <si>
-    <t>"geneticresources",</t>
-  </si>
-  <si>
-    <t>"landdegradation",</t>
-  </si>
-  <si>
-    <t>"landresources",</t>
-  </si>
-  <si>
-    <t>"magnaporthegrisea",</t>
-  </si>
-  <si>
-    <t>"mgr-fingerprinting",</t>
-  </si>
-  <si>
-    <t>"mountainenvironment",</t>
-  </si>
-  <si>
-    <t>"nbudget",</t>
-  </si>
-  <si>
-    <t>"pyriculariagrisea",</t>
-  </si>
-  <si>
-    <t>"subsistenceagriculture",</t>
-  </si>
-  <si>
-    <t>"survey",</t>
-  </si>
-  <si>
-    <t>"sustainableproductivity",</t>
-  </si>
-  <si>
-    <t>"tdndemandandsupply",</t>
-  </si>
-  <si>
-    <t>"traditionalagriculture",</t>
-  </si>
-  <si>
-    <t>"traditionalfarmingsystem",</t>
-  </si>
-  <si>
-    <t>"transformedagriculture")</t>
-  </si>
-  <si>
-    <t>"utilization",</t>
-  </si>
-  <si>
-    <t>"varietalmixtures",</t>
-  </si>
-  <si>
-    <t>"yieldlosses",</t>
+    <t>"cultivar",</t>
+  </si>
+  <si>
+    <t>"manure",</t>
+  </si>
+  <si>
+    <t>"nitrogen",</t>
+  </si>
+  <si>
+    <t>"fareast",</t>
+  </si>
+  <si>
+    <t>"magnaporthegrisea (fungus)",</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>"land management",</t>
+  </si>
+  <si>
+    <t>"sustainable agriculture",</t>
+  </si>
+  <si>
+    <t>"agricultural intensification",</t>
+  </si>
+  <si>
+    <t>"agricultural practice",</t>
+  </si>
+  <si>
+    <t>"carrying capacity",</t>
+  </si>
+  <si>
+    <t>"crop improvement",</t>
+  </si>
+  <si>
+    <t>"genetic resources",</t>
+  </si>
+  <si>
+    <t>"land degradation",</t>
+  </si>
+  <si>
+    <t>"pyriculariagrisea (fungus)",</t>
+  </si>
+  <si>
+    <t>"soil erosion",</t>
+  </si>
+  <si>
+    <t>"subsistence agriculture",</t>
+  </si>
+  <si>
+    <t>1995 - 2000</t>
+  </si>
+  <si>
+    <t>"agro forestry",</t>
+  </si>
+  <si>
+    <t>"soil fertility",</t>
+  </si>
+  <si>
+    <t>"alternative agriculture",</t>
+  </si>
+  <si>
+    <t>"shifting cultivation",</t>
+  </si>
+  <si>
+    <t>"species diversity",</t>
+  </si>
+  <si>
+    <t>"agricultural management",</t>
+  </si>
+  <si>
+    <t>"population structure",</t>
+  </si>
+  <si>
+    <t>"agricultural production",</t>
+  </si>
+  <si>
+    <t>2001 - 2005</t>
+  </si>
+  <si>
+    <t>2006 - 2010</t>
+  </si>
+  <si>
+    <t>2011 - 2015</t>
+  </si>
+  <si>
+    <t>2016 - 2020</t>
+  </si>
+  <si>
+    <t>Keywords Combined</t>
+  </si>
+  <si>
+    <t>Number of Papers = 18</t>
+  </si>
+  <si>
+    <t>Number of Keywords = 177</t>
+  </si>
+  <si>
+    <t>Number of Papers = 57</t>
+  </si>
+  <si>
+    <t>Number of Papers = 110</t>
+  </si>
+  <si>
+    <t>Number of Papers = 288</t>
+  </si>
+  <si>
+    <t>Number of Papers = 492</t>
+  </si>
+  <si>
+    <t>Number of Keywords = 796</t>
+  </si>
+  <si>
+    <t>Number of Keywords = 1666</t>
+  </si>
+  <si>
+    <t>Number of Keywords = 3351</t>
+  </si>
+  <si>
+    <t>Number of Keywords = 7125</t>
   </si>
 </sst>
 </file>
@@ -1810,7 +1867,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1865,8 +1922,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2154,11 +2217,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2247,6 +2362,56 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7788,268 +7953,1164 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ABD099-E1DF-EA44-BDEF-3E860032F67C}">
-  <dimension ref="B2:D30"/>
+  <dimension ref="B1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="B2" sqref="B2:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="3.83203125" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="26.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
+    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="61"/>
+    </row>
+    <row r="3" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="63" t="s">
+        <v>583</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="63" t="s">
+        <v>584</v>
+      </c>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="63" t="s">
+        <v>585</v>
+      </c>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="63" t="s">
+        <v>586</v>
+      </c>
+      <c r="S3" s="63"/>
+      <c r="T3" s="65"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="71" t="s">
+        <v>562</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>552</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>556</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>552</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>556</v>
+      </c>
+      <c r="I4" s="66"/>
+      <c r="J4" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>552</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>556</v>
+      </c>
+      <c r="M4" s="66"/>
+      <c r="N4" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="O4" s="67" t="s">
+        <v>552</v>
+      </c>
+      <c r="P4" s="67" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="S4" s="67" t="s">
+        <v>552</v>
+      </c>
+      <c r="T4" s="70" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="72">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="69">
+        <v>3</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="74">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="69">
+        <v>9</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="74">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="69">
+        <v>25</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="74">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="74">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="72">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D6" s="69">
+        <v>3</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="74">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="H6" s="69">
+        <v>7</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="74">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="69">
+        <v>17</v>
+      </c>
+      <c r="M6" s="54"/>
+      <c r="N6" s="74">
+        <v>2</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="74">
+        <v>2</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="72">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D7" s="69">
+        <v>3</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="74">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="69">
+        <v>7</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="74">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="69">
+        <v>15</v>
+      </c>
+      <c r="M7" s="54"/>
+      <c r="N7" s="74">
+        <v>3</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="74">
+        <v>3</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="72">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D8" s="69">
+        <v>2</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="74">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="69">
+        <v>6</v>
+      </c>
+      <c r="I8" s="54"/>
+      <c r="J8" s="74">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="69">
+        <v>14</v>
+      </c>
+      <c r="M8" s="54"/>
+      <c r="N8" s="74">
+        <v>4</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="74">
+        <v>4</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="72">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="69">
+        <v>2</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="74">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="69">
+        <v>6</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="74">
+        <v>5</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="69">
+        <v>12</v>
+      </c>
+      <c r="M9" s="54"/>
+      <c r="N9" s="74">
+        <v>5</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="7">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="74">
+        <v>5</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="72">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="69">
+        <v>2</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="74">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="69">
+        <v>5</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="74">
+        <v>6</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="69">
+        <v>10</v>
+      </c>
+      <c r="M10" s="54"/>
+      <c r="N10" s="74">
+        <v>6</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="74">
+        <v>6</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="72">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D11" s="69">
+        <v>2</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="74">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="69">
+        <v>5</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="74">
+        <v>7</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="L11" s="69">
+        <v>10</v>
+      </c>
+      <c r="M11" s="54"/>
+      <c r="N11" s="74">
+        <v>7</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="74">
+        <v>7</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="72">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="69">
+        <v>2</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="74">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="69">
+        <v>5</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="74">
+        <v>8</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="69">
+        <v>10</v>
+      </c>
+      <c r="M12" s="54"/>
+      <c r="N12" s="74">
+        <v>8</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="74">
+        <v>8</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="72">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="D13" s="69">
+        <v>2</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="74">
+        <v>9</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="69">
+        <v>5</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="74">
+        <v>9</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="69">
+        <v>8</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="74">
+        <v>9</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P13" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="74">
+        <v>9</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="72">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D14" s="69">
+        <v>2</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="74">
+        <v>10</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="69">
+        <v>5</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="74">
+        <v>10</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L14" s="69">
+        <v>8</v>
+      </c>
+      <c r="M14" s="54"/>
+      <c r="N14" s="74">
+        <v>10</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="74">
+        <v>10</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="72">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D15" s="69">
+        <v>2</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="74">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="69">
+        <v>5</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="74">
+        <v>11</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="69">
+        <v>8</v>
+      </c>
+      <c r="M15" s="54"/>
+      <c r="N15" s="74">
+        <v>11</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="74">
+        <v>11</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="72">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="D16" s="69">
+        <v>2</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="74">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="69">
+        <v>5</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="74">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="69">
+        <v>8</v>
+      </c>
+      <c r="M16" s="54"/>
+      <c r="N16" s="74">
+        <v>12</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="74">
+        <v>12</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="72">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="69">
+        <v>2</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="74">
+        <v>13</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="69">
+        <v>4</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="74">
+        <v>13</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="69">
+        <v>7</v>
+      </c>
+      <c r="M17" s="54"/>
+      <c r="N17" s="74">
+        <v>13</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P17" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="74">
+        <v>13</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="72">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="D18" s="69">
+        <v>2</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="74">
+        <v>14</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="69">
+        <v>4</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="74">
+        <v>14</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="L18" s="69">
+        <v>7</v>
+      </c>
+      <c r="M18" s="54"/>
+      <c r="N18" s="74">
+        <v>14</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P18" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="74">
+        <v>14</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="72">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="D19" s="69">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="74">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="H19" s="69">
+        <v>4</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="74">
+        <v>15</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="69">
+        <v>7</v>
+      </c>
+      <c r="M19" s="54"/>
+      <c r="N19" s="74">
+        <v>15</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="74">
+        <v>15</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="72">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>561</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="D20" s="69">
+        <v>2</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="74">
+        <v>16</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="69">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>562</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>563</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>564</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>565</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>566</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>567</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="M20" s="54"/>
+      <c r="N20" s="74">
+        <v>16</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="74">
+        <v>16</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="T20" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="72">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D21" s="69">
+        <v>2</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="74">
+        <v>17</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="74">
+        <v>17</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="72">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D22" s="69">
+        <v>2</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="74">
+        <v>18</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="74">
+        <v>18</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="T22" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="72">
+        <v>19</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D23" s="69">
+        <v>2</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="74">
+        <v>19</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>568</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>569</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>570</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>571</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>572</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>573</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>574</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>575</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>576</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+      <c r="P23" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="74">
+        <v>19</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>578</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
+      <c r="T23" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="75">
+        <v>20</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="8">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="76"/>
+      <c r="C25" s="80" t="s">
+        <v>588</v>
+      </c>
+      <c r="D25" s="77"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="80" t="s">
+        <v>590</v>
+      </c>
+      <c r="H25" s="77"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="L25" s="77"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="80" t="s">
+        <v>592</v>
+      </c>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="80" t="s">
+        <v>593</v>
+      </c>
+      <c r="T25" s="78"/>
+    </row>
+    <row r="26" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="55"/>
+      <c r="C26" s="81" t="s">
+        <v>589</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="81" t="s">
+        <v>594</v>
+      </c>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="81" t="s">
+        <v>595</v>
+      </c>
+      <c r="L26" s="56"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="81" t="s">
+        <v>596</v>
+      </c>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="81" t="s">
+        <v>597</v>
+      </c>
+      <c r="T26" s="58"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="B2:T2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/excel-organize.xlsx
+++ b/output/excel-organize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanshakya/Desktop/mom-ag_services/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF8EAAD-D338-484A-A703-EDDE7CD3DF60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649343CD-795B-7B4D-B6BB-EE4293344137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{D48A5087-0F85-9648-B34D-C644C0BC30EB}"/>
   </bookViews>

--- a/output/excel-organize.xlsx
+++ b/output/excel-organize.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanshakya/Desktop/mom-ag_services/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649343CD-795B-7B4D-B6BB-EE4293344137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB9E6E0-D6EA-A747-B9CA-15D790559F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{D48A5087-0F85-9648-B34D-C644C0BC30EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{D48A5087-0F85-9648-B34D-C644C0BC30EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare1-2_Div" sheetId="1" r:id="rId1"/>
     <sheet name="List-All" sheetId="2" r:id="rId2"/>
     <sheet name="Author-5_yrs" sheetId="3" r:id="rId3"/>
+    <sheet name="institution-country" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="627">
   <si>
     <t>"conservation",</t>
   </si>
@@ -1829,13 +1830,100 @@
   </si>
   <si>
     <t>Number of Keywords = 7125</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kingdom</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>States</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Number of Authors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1866,8 +1954,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1928,8 +2031,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2269,11 +2378,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2338,54 +2533,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2412,6 +2565,62 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2748,50 +2957,50 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="27"/>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="51"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="73"/>
     </row>
     <row r="3" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="48"/>
+      <c r="H3" s="70"/>
       <c r="I3" s="27"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="46"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="48"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
@@ -3296,16 +3505,16 @@
     </row>
     <row r="2" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="37"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="74" t="s">
         <v>554</v>
       </c>
-      <c r="D2" s="52"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="38"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="74" t="s">
         <v>555</v>
       </c>
-      <c r="H2" s="53"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="34"/>
@@ -7955,7 +8164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ABD099-E1DF-EA44-BDEF-3E860032F67C}">
   <dimension ref="B1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:T26"/>
     </sheetView>
   </sheetViews>
@@ -7982,142 +8191,142 @@
   <sheetData>
     <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="79" t="s">
         <v>587</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81"/>
     </row>
     <row r="3" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="76" t="s">
         <v>574</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="63" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="77" t="s">
         <v>583</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="63" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="77" t="s">
         <v>584</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="63" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="77" t="s">
         <v>585</v>
       </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="63" t="s">
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="77" t="s">
         <v>586</v>
       </c>
-      <c r="S3" s="63"/>
-      <c r="T3" s="65"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="78"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="57" t="s">
         <v>562</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="53" t="s">
         <v>552</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="54" t="s">
         <v>556</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="73" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="59" t="s">
         <v>562</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="53" t="s">
         <v>552</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="54" t="s">
         <v>556</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="73" t="s">
+      <c r="I4" s="52"/>
+      <c r="J4" s="59" t="s">
         <v>562</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="53" t="s">
         <v>552</v>
       </c>
-      <c r="L4" s="68" t="s">
+      <c r="L4" s="54" t="s">
         <v>556</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="73" t="s">
+      <c r="M4" s="52"/>
+      <c r="N4" s="59" t="s">
         <v>562</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="53" t="s">
         <v>552</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="53" t="s">
         <v>556</v>
       </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="73" t="s">
+      <c r="Q4" s="52"/>
+      <c r="R4" s="59" t="s">
         <v>562</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="53" t="s">
         <v>552</v>
       </c>
-      <c r="T4" s="70" t="s">
+      <c r="T4" s="56" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="72">
+      <c r="B5" s="58">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="55">
         <v>3</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="74">
+      <c r="E5" s="46"/>
+      <c r="F5" s="60">
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="55">
         <v>9</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="74">
+      <c r="I5" s="46"/>
+      <c r="J5" s="60">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="55">
         <v>25</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="74">
+      <c r="M5" s="46"/>
+      <c r="N5" s="60">
         <v>1</v>
       </c>
       <c r="O5" s="7" t="s">
@@ -8126,8 +8335,8 @@
       <c r="P5" s="7">
         <v>29</v>
       </c>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="74">
+      <c r="Q5" s="46"/>
+      <c r="R5" s="60">
         <v>1</v>
       </c>
       <c r="S5" s="7" t="s">
@@ -8138,37 +8347,37 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="72">
+      <c r="B6" s="58">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="55">
         <v>3</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="74">
+      <c r="E6" s="46"/>
+      <c r="F6" s="60">
         <v>2</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="55">
         <v>7</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="74">
+      <c r="I6" s="46"/>
+      <c r="J6" s="60">
         <v>2</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="55">
         <v>17</v>
       </c>
-      <c r="M6" s="54"/>
-      <c r="N6" s="74">
+      <c r="M6" s="46"/>
+      <c r="N6" s="60">
         <v>2</v>
       </c>
       <c r="O6" s="7" t="s">
@@ -8177,8 +8386,8 @@
       <c r="P6" s="7">
         <v>24</v>
       </c>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="74">
+      <c r="Q6" s="46"/>
+      <c r="R6" s="60">
         <v>2</v>
       </c>
       <c r="S6" s="7" t="s">
@@ -8189,37 +8398,37 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="72">
+      <c r="B7" s="58">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="55">
         <v>3</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="74">
+      <c r="E7" s="46"/>
+      <c r="F7" s="60">
         <v>3</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="55">
         <v>7</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="74">
+      <c r="I7" s="46"/>
+      <c r="J7" s="60">
         <v>3</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="55">
         <v>15</v>
       </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="74">
+      <c r="M7" s="46"/>
+      <c r="N7" s="60">
         <v>3</v>
       </c>
       <c r="O7" s="7" t="s">
@@ -8228,8 +8437,8 @@
       <c r="P7" s="7">
         <v>24</v>
       </c>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="74">
+      <c r="Q7" s="46"/>
+      <c r="R7" s="60">
         <v>3</v>
       </c>
       <c r="S7" s="7" t="s">
@@ -8240,37 +8449,37 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="72">
+      <c r="B8" s="58">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="55">
         <v>2</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="74">
+      <c r="E8" s="46"/>
+      <c r="F8" s="60">
         <v>4</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="55">
         <v>6</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="74">
+      <c r="I8" s="46"/>
+      <c r="J8" s="60">
         <v>4</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="55">
         <v>14</v>
       </c>
-      <c r="M8" s="54"/>
-      <c r="N8" s="74">
+      <c r="M8" s="46"/>
+      <c r="N8" s="60">
         <v>4</v>
       </c>
       <c r="O8" s="7" t="s">
@@ -8279,8 +8488,8 @@
       <c r="P8" s="7">
         <v>24</v>
       </c>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="74">
+      <c r="Q8" s="46"/>
+      <c r="R8" s="60">
         <v>4</v>
       </c>
       <c r="S8" s="7" t="s">
@@ -8291,37 +8500,37 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="72">
+      <c r="B9" s="58">
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="55">
         <v>2</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="74">
+      <c r="E9" s="46"/>
+      <c r="F9" s="60">
         <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="55">
         <v>6</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="74">
+      <c r="I9" s="46"/>
+      <c r="J9" s="60">
         <v>5</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="55">
         <v>12</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="74">
+      <c r="M9" s="46"/>
+      <c r="N9" s="60">
         <v>5</v>
       </c>
       <c r="O9" s="7" t="s">
@@ -8330,8 +8539,8 @@
       <c r="P9" s="7">
         <v>19</v>
       </c>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="74">
+      <c r="Q9" s="46"/>
+      <c r="R9" s="60">
         <v>5</v>
       </c>
       <c r="S9" s="7" t="s">
@@ -8342,37 +8551,37 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="72">
+      <c r="B10" s="58">
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="55">
         <v>2</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="74">
+      <c r="E10" s="46"/>
+      <c r="F10" s="60">
         <v>6</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="55">
         <v>5</v>
       </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="74">
+      <c r="I10" s="46"/>
+      <c r="J10" s="60">
         <v>6</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="55">
         <v>10</v>
       </c>
-      <c r="M10" s="54"/>
-      <c r="N10" s="74">
+      <c r="M10" s="46"/>
+      <c r="N10" s="60">
         <v>6</v>
       </c>
       <c r="O10" s="7" t="s">
@@ -8381,8 +8590,8 @@
       <c r="P10" s="7">
         <v>17</v>
       </c>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="74">
+      <c r="Q10" s="46"/>
+      <c r="R10" s="60">
         <v>6</v>
       </c>
       <c r="S10" s="7" t="s">
@@ -8393,37 +8602,37 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="72">
+      <c r="B11" s="58">
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="55">
         <v>2</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="74">
+      <c r="E11" s="46"/>
+      <c r="F11" s="60">
         <v>7</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="55">
         <v>5</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="74">
+      <c r="I11" s="46"/>
+      <c r="J11" s="60">
         <v>7</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="55">
         <v>10</v>
       </c>
-      <c r="M11" s="54"/>
-      <c r="N11" s="74">
+      <c r="M11" s="46"/>
+      <c r="N11" s="60">
         <v>7</v>
       </c>
       <c r="O11" s="7" t="s">
@@ -8432,8 +8641,8 @@
       <c r="P11" s="7">
         <v>14</v>
       </c>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="74">
+      <c r="Q11" s="46"/>
+      <c r="R11" s="60">
         <v>7</v>
       </c>
       <c r="S11" s="7" t="s">
@@ -8444,37 +8653,37 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="72">
+      <c r="B12" s="58">
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="55">
         <v>2</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="74">
+      <c r="E12" s="46"/>
+      <c r="F12" s="60">
         <v>8</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="55">
         <v>5</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="74">
+      <c r="I12" s="46"/>
+      <c r="J12" s="60">
         <v>8</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="55">
         <v>10</v>
       </c>
-      <c r="M12" s="54"/>
-      <c r="N12" s="74">
+      <c r="M12" s="46"/>
+      <c r="N12" s="60">
         <v>8</v>
       </c>
       <c r="O12" s="7" t="s">
@@ -8483,8 +8692,8 @@
       <c r="P12" s="7">
         <v>14</v>
       </c>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="74">
+      <c r="Q12" s="46"/>
+      <c r="R12" s="60">
         <v>8</v>
       </c>
       <c r="S12" s="7" t="s">
@@ -8495,37 +8704,37 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="72">
+      <c r="B13" s="58">
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="55">
         <v>2</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="74">
+      <c r="E13" s="46"/>
+      <c r="F13" s="60">
         <v>9</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="55">
         <v>5</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="74">
+      <c r="I13" s="46"/>
+      <c r="J13" s="60">
         <v>9</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="69">
+      <c r="L13" s="55">
         <v>8</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="74">
+      <c r="M13" s="46"/>
+      <c r="N13" s="60">
         <v>9</v>
       </c>
       <c r="O13" s="7" t="s">
@@ -8534,8 +8743,8 @@
       <c r="P13" s="7">
         <v>14</v>
       </c>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="74">
+      <c r="Q13" s="46"/>
+      <c r="R13" s="60">
         <v>9</v>
       </c>
       <c r="S13" s="7" t="s">
@@ -8546,37 +8755,37 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="72">
+      <c r="B14" s="58">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="55">
         <v>2</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="74">
+      <c r="E14" s="46"/>
+      <c r="F14" s="60">
         <v>10</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="55">
         <v>5</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="74">
+      <c r="I14" s="46"/>
+      <c r="J14" s="60">
         <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="55">
         <v>8</v>
       </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="74">
+      <c r="M14" s="46"/>
+      <c r="N14" s="60">
         <v>10</v>
       </c>
       <c r="O14" s="7" t="s">
@@ -8585,8 +8794,8 @@
       <c r="P14" s="7">
         <v>13</v>
       </c>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="74">
+      <c r="Q14" s="46"/>
+      <c r="R14" s="60">
         <v>10</v>
       </c>
       <c r="S14" s="7" t="s">
@@ -8597,37 +8806,37 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="72">
+      <c r="B15" s="58">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="55">
         <v>2</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="74">
+      <c r="E15" s="46"/>
+      <c r="F15" s="60">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="55">
         <v>5</v>
       </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="74">
+      <c r="I15" s="46"/>
+      <c r="J15" s="60">
         <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="69">
+      <c r="L15" s="55">
         <v>8</v>
       </c>
-      <c r="M15" s="54"/>
-      <c r="N15" s="74">
+      <c r="M15" s="46"/>
+      <c r="N15" s="60">
         <v>11</v>
       </c>
       <c r="O15" s="7" t="s">
@@ -8636,8 +8845,8 @@
       <c r="P15" s="7">
         <v>13</v>
       </c>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="74">
+      <c r="Q15" s="46"/>
+      <c r="R15" s="60">
         <v>11</v>
       </c>
       <c r="S15" s="7" t="s">
@@ -8648,37 +8857,37 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="72">
+      <c r="B16" s="58">
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="55">
         <v>2</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="74">
+      <c r="E16" s="46"/>
+      <c r="F16" s="60">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="55">
         <v>5</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="74">
+      <c r="I16" s="46"/>
+      <c r="J16" s="60">
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="55">
         <v>8</v>
       </c>
-      <c r="M16" s="54"/>
-      <c r="N16" s="74">
+      <c r="M16" s="46"/>
+      <c r="N16" s="60">
         <v>12</v>
       </c>
       <c r="O16" s="7" t="s">
@@ -8687,8 +8896,8 @@
       <c r="P16" s="7">
         <v>13</v>
       </c>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="74">
+      <c r="Q16" s="46"/>
+      <c r="R16" s="60">
         <v>12</v>
       </c>
       <c r="S16" s="7" t="s">
@@ -8699,37 +8908,37 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="72">
+      <c r="B17" s="58">
         <v>13</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="55">
         <v>2</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="74">
+      <c r="E17" s="46"/>
+      <c r="F17" s="60">
         <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="55">
         <v>4</v>
       </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="74">
+      <c r="I17" s="46"/>
+      <c r="J17" s="60">
         <v>13</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="69">
+      <c r="L17" s="55">
         <v>7</v>
       </c>
-      <c r="M17" s="54"/>
-      <c r="N17" s="74">
+      <c r="M17" s="46"/>
+      <c r="N17" s="60">
         <v>13</v>
       </c>
       <c r="O17" s="7" t="s">
@@ -8738,8 +8947,8 @@
       <c r="P17" s="7">
         <v>12</v>
       </c>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="74">
+      <c r="Q17" s="46"/>
+      <c r="R17" s="60">
         <v>13</v>
       </c>
       <c r="S17" s="7" t="s">
@@ -8750,37 +8959,37 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="72">
+      <c r="B18" s="58">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="55">
         <v>2</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="74">
+      <c r="E18" s="46"/>
+      <c r="F18" s="60">
         <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="55">
         <v>4</v>
       </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="74">
+      <c r="I18" s="46"/>
+      <c r="J18" s="60">
         <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="L18" s="69">
+      <c r="L18" s="55">
         <v>7</v>
       </c>
-      <c r="M18" s="54"/>
-      <c r="N18" s="74">
+      <c r="M18" s="46"/>
+      <c r="N18" s="60">
         <v>14</v>
       </c>
       <c r="O18" s="7" t="s">
@@ -8789,8 +8998,8 @@
       <c r="P18" s="7">
         <v>12</v>
       </c>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="74">
+      <c r="Q18" s="46"/>
+      <c r="R18" s="60">
         <v>14</v>
       </c>
       <c r="S18" s="7" t="s">
@@ -8801,37 +9010,37 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="72">
+      <c r="B19" s="58">
         <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="55">
         <v>2</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="74">
+      <c r="E19" s="46"/>
+      <c r="F19" s="60">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="55">
         <v>4</v>
       </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="74">
+      <c r="I19" s="46"/>
+      <c r="J19" s="60">
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="69">
+      <c r="L19" s="55">
         <v>7</v>
       </c>
-      <c r="M19" s="54"/>
-      <c r="N19" s="74">
+      <c r="M19" s="46"/>
+      <c r="N19" s="60">
         <v>15</v>
       </c>
       <c r="O19" s="7" t="s">
@@ -8840,8 +9049,8 @@
       <c r="P19" s="7">
         <v>11</v>
       </c>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="74">
+      <c r="Q19" s="46"/>
+      <c r="R19" s="60">
         <v>15</v>
       </c>
       <c r="S19" s="7" t="s">
@@ -8852,31 +9061,31 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="72">
+      <c r="B20" s="58">
         <v>16</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="55">
         <v>2</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="15"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="74">
+      <c r="I20" s="46"/>
+      <c r="J20" s="60">
         <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L20" s="69">
+      <c r="L20" s="55">
         <v>7</v>
       </c>
-      <c r="M20" s="54"/>
-      <c r="N20" s="74">
+      <c r="M20" s="46"/>
+      <c r="N20" s="60">
         <v>16</v>
       </c>
       <c r="O20" s="7" t="s">
@@ -8885,8 +9094,8 @@
       <c r="P20" s="7">
         <v>11</v>
       </c>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="74">
+      <c r="Q20" s="46"/>
+      <c r="R20" s="60">
         <v>16</v>
       </c>
       <c r="S20" s="7" t="s">
@@ -8897,25 +9106,25 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="72">
+      <c r="B21" s="58">
         <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="55">
         <v>2</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="15"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="54"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="15"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="74">
+      <c r="M21" s="46"/>
+      <c r="N21" s="60">
         <v>17</v>
       </c>
       <c r="O21" s="7" t="s">
@@ -8924,8 +9133,8 @@
       <c r="P21" s="7">
         <v>11</v>
       </c>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="74">
+      <c r="Q21" s="46"/>
+      <c r="R21" s="60">
         <v>17</v>
       </c>
       <c r="S21" s="7" t="s">
@@ -8936,25 +9145,25 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="72">
+      <c r="B22" s="58">
         <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="55">
         <v>2</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="15"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="54"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="15"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="74">
+      <c r="M22" s="46"/>
+      <c r="N22" s="60">
         <v>18</v>
       </c>
       <c r="O22" s="7" t="s">
@@ -8963,8 +9172,8 @@
       <c r="P22" s="7">
         <v>11</v>
       </c>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="74">
+      <c r="Q22" s="46"/>
+      <c r="R22" s="60">
         <v>18</v>
       </c>
       <c r="S22" s="7" t="s">
@@ -8975,25 +9184,25 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="72">
+      <c r="B23" s="58">
         <v>19</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="D23" s="69">
+      <c r="D23" s="55">
         <v>2</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="15"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="54"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="15"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="74">
+      <c r="M23" s="46"/>
+      <c r="N23" s="60">
         <v>19</v>
       </c>
       <c r="O23" s="7" t="s">
@@ -9002,8 +9211,8 @@
       <c r="P23" s="7">
         <v>11</v>
       </c>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="74">
+      <c r="Q23" s="46"/>
+      <c r="R23" s="60">
         <v>19</v>
       </c>
       <c r="S23" s="7" t="s">
@@ -9017,16 +9226,16 @@
       <c r="B24" s="13"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="57"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="16"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="49"/>
       <c r="J24" s="16"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="75">
+      <c r="M24" s="49"/>
+      <c r="N24" s="61">
         <v>20</v>
       </c>
       <c r="O24" s="8" t="s">
@@ -9035,82 +9244,632 @@
       <c r="P24" s="8">
         <v>11</v>
       </c>
-      <c r="Q24" s="57"/>
+      <c r="Q24" s="49"/>
       <c r="R24" s="16"/>
       <c r="S24" s="8"/>
       <c r="T24" s="10"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="76"/>
-      <c r="C25" s="80" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="66" t="s">
         <v>588</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="80" t="s">
+      <c r="D25" s="63"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="66" t="s">
         <v>590</v>
       </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="80" t="s">
+      <c r="H25" s="63"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="66" t="s">
         <v>591</v>
       </c>
-      <c r="L25" s="77"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="80" t="s">
+      <c r="L25" s="63"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="66" t="s">
         <v>592</v>
       </c>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="80" t="s">
+      <c r="P25" s="63"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="66" t="s">
         <v>593</v>
       </c>
-      <c r="T25" s="78"/>
+      <c r="T25" s="64"/>
     </row>
     <row r="26" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
-      <c r="C26" s="81" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="81" t="s">
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="67" t="s">
         <v>594</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="81" t="s">
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="67" t="s">
         <v>595</v>
       </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="81" t="s">
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="67" t="s">
         <v>596</v>
       </c>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="81" t="s">
+      <c r="P26" s="48"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="67" t="s">
         <v>597</v>
       </c>
-      <c r="T26" s="58"/>
+      <c r="T26" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:T2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="R3:T3"/>
-    <mergeCell ref="B2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409494C3-7252-CC4F-BAD4-54271B355BBC}">
+  <dimension ref="D1:F84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="93"/>
+      <c r="E2" s="83" t="s">
+        <v>625</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="85">
+        <v>1</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>606</v>
+      </c>
+      <c r="F3" s="92">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="85">
+        <v>2</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>603</v>
+      </c>
+      <c r="F4" s="88">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="85">
+        <v>3</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>620</v>
+      </c>
+      <c r="F5" s="88">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="85">
+        <v>4</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>614</v>
+      </c>
+      <c r="F6" s="88">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="85">
+        <v>5</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="F7" s="88">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="85">
+        <v>6</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>617</v>
+      </c>
+      <c r="F8" s="88">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="85">
+        <v>7</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>598</v>
+      </c>
+      <c r="F9" s="88">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="85">
+        <v>8</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>599</v>
+      </c>
+      <c r="F10" s="88">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="85">
+        <v>9</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>605</v>
+      </c>
+      <c r="F11" s="88">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="85">
+        <v>10</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>602</v>
+      </c>
+      <c r="F12" s="88">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="85">
+        <v>11</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>607</v>
+      </c>
+      <c r="F13" s="88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="85">
+        <v>12</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>615</v>
+      </c>
+      <c r="F14" s="88">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="85">
+        <v>13</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>604</v>
+      </c>
+      <c r="F15" s="88">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="85">
+        <v>14</v>
+      </c>
+      <c r="E16" s="87" t="s">
+        <v>624</v>
+      </c>
+      <c r="F16" s="88">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="85">
+        <v>15</v>
+      </c>
+      <c r="E17" s="87" t="s">
+        <v>608</v>
+      </c>
+      <c r="F17" s="88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18" s="85">
+        <v>16</v>
+      </c>
+      <c r="E18" s="87" t="s">
+        <v>619</v>
+      </c>
+      <c r="F18" s="88">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="85">
+        <v>17</v>
+      </c>
+      <c r="E19" s="87" t="s">
+        <v>600</v>
+      </c>
+      <c r="F19" s="88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="85">
+        <v>18</v>
+      </c>
+      <c r="E20" s="87" t="s">
+        <v>612</v>
+      </c>
+      <c r="F20" s="88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="85">
+        <v>19</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>622</v>
+      </c>
+      <c r="F21" s="88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="85">
+        <v>20</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>609</v>
+      </c>
+      <c r="F22" s="88">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="85">
+        <v>21</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>616</v>
+      </c>
+      <c r="F23" s="88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="85">
+        <v>22</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>621</v>
+      </c>
+      <c r="F24" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="85">
+        <v>23</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>601</v>
+      </c>
+      <c r="F25" s="88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D26" s="85">
+        <v>24</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>611</v>
+      </c>
+      <c r="F26" s="88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D27" s="85">
+        <v>25</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>613</v>
+      </c>
+      <c r="F27" s="88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="85">
+        <v>26</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>618</v>
+      </c>
+      <c r="F28" s="88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="86">
+        <v>27</v>
+      </c>
+      <c r="E29" s="89" t="s">
+        <v>623</v>
+      </c>
+      <c r="F29" s="90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E79" s="82"/>
+      <c r="F79" s="82"/>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E82" s="82"/>
+      <c r="F82" s="82"/>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E83" s="82"/>
+      <c r="F83" s="82"/>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F84">
+    <sortCondition descending="1" ref="F2:F84"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>